--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
@@ -12,11 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="406">
   <si>
     <t>id</t>
   </si>
@@ -366,18 +372,6 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>Combining the Conservation of Biodiversity with the Provision of Ecosystem Services in Urban Green Infrastructure Planning: Critical Features Arising from a Case Study in the Metropolitan Area of Rome</t>
-  </si>
-  <si>
-    <t>Capotorti, Giulia; Del Vico, Eva; Anzellotti, Ilaria; Celesti-Grapow, Laura</t>
-  </si>
-  <si>
-    <t>SUSTAINABILITY</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
     <t>Do vegetated rooftops attract more mosquitoes? Monitoring disease vector abundance on urban green roofs</t>
   </si>
   <si>
@@ -474,22 +468,10 @@
     <t>LANDSCAPE ECOLOGY</t>
   </si>
   <si>
-    <t>Bioretention Column Study of Bacteria Community Response to Salt-Enriched Artificial Stormwater</t>
-  </si>
-  <si>
-    <t>Endreny, Theodore; Burke, David J.; Burchhardt, Kathleen M.; Fabian, Mark W.; Kretzer, Annette M.</t>
-  </si>
-  <si>
     <t>JOURNAL OF ENVIRONMENTAL QUALITY</t>
   </si>
   <si>
-    <t>artificial</t>
-  </si>
-  <si>
     <t>retention pond</t>
-  </si>
-  <si>
-    <t>bacteria composition</t>
   </si>
   <si>
     <t>Roadsides: an opportunity for biodiversity conservation</t>
@@ -1270,8 +1252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,6 +1293,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1357,7 +1347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,9 +1379,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1423,6 +1414,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1598,16 +1590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1681,7 +1673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1698,7 +1690,7 @@
         <v>2014</v>
       </c>
       <c r="F2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
@@ -1716,7 +1708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1733,7 +1725,7 @@
         <v>2012</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G3">
         <v>42.281388999999997</v>
@@ -1769,7 +1761,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1786,7 +1778,7 @@
         <v>2011</v>
       </c>
       <c r="F4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G4">
         <v>19.166667</v>
@@ -1813,7 +1805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1830,7 +1822,7 @@
         <v>2013</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G5">
         <v>43.7</v>
@@ -1860,7 +1852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -1913,7 +1905,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -1960,7 +1952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2010,7 +2002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2060,7 +2052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2077,7 +2069,7 @@
         <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G10">
         <v>52.516666999999998</v>
@@ -2104,7 +2096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2121,7 +2113,7 @@
         <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G11">
         <v>43.7</v>
@@ -2151,7 +2143,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2168,7 +2160,7 @@
         <v>2016</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G12">
         <v>60.170833000000002</v>
@@ -2201,7 +2193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2218,7 +2210,7 @@
         <v>2014</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G13">
         <v>59.329444000000002</v>
@@ -2248,7 +2240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2277,7 +2269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2294,7 +2286,7 @@
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G15">
         <v>-37.813609999999997</v>
@@ -2330,7 +2322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2347,7 +2339,7 @@
         <v>2016</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G16">
         <v>39.1</v>
@@ -2377,7 +2369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2394,7 +2386,7 @@
         <v>2015</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G17">
         <v>39.916666999999997</v>
@@ -2424,9 +2416,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -2438,159 +2430,174 @@
         <v>118</v>
       </c>
       <c r="E18">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="F18" t="s">
+        <v>404</v>
       </c>
       <c r="G18">
-        <v>41.9</v>
+        <v>22.3964</v>
       </c>
       <c r="H18">
-        <v>12.5</v>
+        <v>114.1095</v>
       </c>
       <c r="I18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18">
+        <v>7.15</v>
+      </c>
+      <c r="M18">
+        <v>2.954E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
         <v>119</v>
       </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18">
-        <v>4.3550000000000004</v>
-      </c>
-      <c r="M18">
-        <v>3.3890000000000001E-3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>47</v>
-      </c>
       <c r="P18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>2016</v>
       </c>
+      <c r="F19" t="s">
+        <v>404</v>
+      </c>
       <c r="G19">
-        <v>22.3964</v>
+        <v>43.886944</v>
       </c>
       <c r="H19">
-        <v>114.1095</v>
+        <v>125.32472199999999</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s">
         <v>77</v>
       </c>
       <c r="L19">
-        <v>7.15</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.954E-2</v>
+        <v>4.5180000000000003E-3</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>397</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>364</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>2017</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" t="s">
         <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <v>2016</v>
-      </c>
-      <c r="G20">
-        <v>43.886944</v>
-      </c>
-      <c r="H20">
-        <v>125.32472199999999</v>
-      </c>
-      <c r="I20">
-        <v>222</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20">
-        <v>3.75</v>
-      </c>
-      <c r="M20">
-        <v>4.5180000000000003E-3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>47</v>
       </c>
       <c r="P20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="U20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
-        <v>129</v>
-      </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>2017</v>
       </c>
+      <c r="F21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21">
+        <v>52.4</v>
+      </c>
+      <c r="H21">
+        <v>16.916667</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>129</v>
+      </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>130</v>
+      </c>
+      <c r="L21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M21">
+        <v>4.215E-3</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
       <c r="U21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -2599,45 +2606,30 @@
         <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="E22">
         <v>2017</v>
       </c>
-      <c r="G22">
-        <v>52.4</v>
-      </c>
-      <c r="H22">
-        <v>16.916667</v>
-      </c>
-      <c r="I22">
-        <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>133</v>
+      <c r="F22" t="s">
+        <v>404</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M22">
-        <v>4.215E-3</v>
+        <v>79</v>
       </c>
       <c r="N22" t="s">
         <v>40</v>
       </c>
+      <c r="O22" t="s">
+        <v>134</v>
+      </c>
       <c r="P22" t="s">
         <v>30</v>
       </c>
-      <c r="U22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
@@ -2646,74 +2638,95 @@
         <v>136</v>
       </c>
       <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>2016</v>
+      </c>
+      <c r="F23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23">
+        <v>43.7</v>
+      </c>
+      <c r="H23">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="I23">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23">
+        <v>5.1327939999999996</v>
+      </c>
+      <c r="M23">
+        <v>2.931E-3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s">
         <v>137</v>
       </c>
-      <c r="E23">
-        <v>2017</v>
-      </c>
-      <c r="K23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" t="s">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>429</v>
+      </c>
+      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="P23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
-        <v>415</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="C24" t="s">
-        <v>140</v>
-      </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>2016</v>
       </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
       <c r="G24">
-        <v>43.7</v>
+        <v>51.507221999999999</v>
       </c>
       <c r="H24">
-        <v>-79.400000000000006</v>
+        <v>-0.1275</v>
       </c>
       <c r="I24">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="L24">
-        <v>5.1327939999999996</v>
+        <v>9.7870000000000008</v>
       </c>
       <c r="M24">
-        <v>2.931E-3</v>
+        <v>5.6369999999999996E-3</v>
       </c>
       <c r="N24" t="s">
         <v>28</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
-      </c>
-      <c r="S24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
         <v>142</v>
@@ -2722,57 +2735,66 @@
         <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E25">
         <v>2016</v>
       </c>
-      <c r="G25">
-        <v>51.507221999999999</v>
-      </c>
-      <c r="H25">
-        <v>-0.1275</v>
-      </c>
-      <c r="I25">
-        <v>35</v>
-      </c>
-      <c r="J25" t="s">
-        <v>144</v>
+      <c r="F25" t="s">
+        <v>404</v>
       </c>
       <c r="K25" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25">
-        <v>9.7870000000000008</v>
-      </c>
-      <c r="M25">
-        <v>5.6369999999999996E-3</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="U25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
         <v>146</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>147</v>
       </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
       <c r="E26">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>22.3964</v>
+      </c>
+      <c r="H26">
+        <v>114.1095</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>77</v>
+      </c>
+      <c r="L26">
+        <v>7.15</v>
+      </c>
+      <c r="M26">
+        <v>2.954E-2</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
@@ -2780,83 +2802,104 @@
       <c r="P26" t="s">
         <v>30</v>
       </c>
-      <c r="U26">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E27">
-        <v>2015</v>
+        <v>2017</v>
+      </c>
+      <c r="F27" t="s">
+        <v>404</v>
       </c>
       <c r="G27">
-        <v>22.3964</v>
+        <v>40.383333</v>
       </c>
       <c r="H27">
-        <v>114.1095</v>
+        <v>-3.7166670000000002</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="L27">
-        <v>7.15</v>
+        <v>3.141</v>
       </c>
       <c r="M27">
-        <v>2.954E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="N27" t="s">
+        <v>154</v>
+      </c>
+      <c r="U27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>463</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>2017</v>
+      </c>
+      <c r="F28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28">
+        <v>18.406389000000001</v>
+      </c>
+      <c r="H28">
+        <v>-66.063889000000003</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28">
+        <v>2.35</v>
+      </c>
+      <c r="M28">
+        <v>2.6830000000000001E-3</v>
+      </c>
+      <c r="N28" t="s">
         <v>33</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28">
-        <v>442</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28">
-        <v>2012</v>
-      </c>
-      <c r="K28" t="s">
-        <v>155</v>
-      </c>
-      <c r="N28" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B29" t="s">
         <v>158</v>
@@ -2865,76 +2908,58 @@
         <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>2017</v>
       </c>
+      <c r="F29" t="s">
+        <v>404</v>
+      </c>
       <c r="G29">
-        <v>40.383333</v>
+        <v>43.7</v>
       </c>
       <c r="H29">
-        <v>-3.7166670000000002</v>
+        <v>-79.400000000000006</v>
       </c>
       <c r="I29">
-        <v>667</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29">
+        <v>5.1327939999999996</v>
+      </c>
+      <c r="M29">
+        <v>2.931E-3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
         <v>160</v>
       </c>
-      <c r="K29" t="s">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>465</v>
+      </c>
+      <c r="B30" t="s">
         <v>161</v>
       </c>
-      <c r="L29">
-        <v>3.141</v>
-      </c>
-      <c r="M29">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="C30" t="s">
         <v>162</v>
       </c>
-      <c r="U29">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30">
-        <v>463</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>163</v>
-      </c>
-      <c r="C30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
       </c>
       <c r="E30">
         <v>2017</v>
       </c>
-      <c r="G30">
-        <v>18.406389000000001</v>
-      </c>
-      <c r="H30">
-        <v>-66.063889000000003</v>
-      </c>
-      <c r="I30">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30">
-        <v>2.35</v>
-      </c>
-      <c r="M30">
-        <v>2.6830000000000001E-3</v>
-      </c>
       <c r="N30" t="s">
         <v>33</v>
       </c>
@@ -2942,123 +2967,141 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="E31">
         <v>2017</v>
       </c>
       <c r="G31">
-        <v>43.7</v>
+        <v>22.3964</v>
       </c>
       <c r="H31">
-        <v>-79.400000000000006</v>
+        <v>114.1095</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>76</v>
       </c>
-      <c r="J31" t="s">
-        <v>52</v>
-      </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="L31">
-        <v>5.1327939999999996</v>
+        <v>7.15</v>
       </c>
       <c r="M31">
-        <v>2.931E-3</v>
+        <v>2.954E-2</v>
       </c>
       <c r="N31" t="s">
         <v>28</v>
       </c>
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
       <c r="P31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>491</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32">
-        <v>465</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32">
+        <v>2015</v>
+      </c>
+      <c r="G32">
+        <v>51.333329999999997</v>
+      </c>
+      <c r="H32">
+        <v>12.383330000000001</v>
+      </c>
+      <c r="J32" t="s">
         <v>169</v>
       </c>
-      <c r="C32" t="s">
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32">
+        <v>0.57108800000000004</v>
+      </c>
+      <c r="M32">
+        <v>1.923E-3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>499</v>
+      </c>
+      <c r="B33" t="s">
         <v>170</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>171</v>
       </c>
-      <c r="E32">
-        <v>2017</v>
-      </c>
-      <c r="N32" t="s">
-        <v>33</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33">
+        <v>2011</v>
+      </c>
+      <c r="G33">
+        <v>-6.2</v>
+      </c>
+      <c r="H33">
+        <v>106.816667</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33">
+        <v>10.074999999999999</v>
+      </c>
+      <c r="M33">
+        <v>1.5242E-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33">
-        <v>466</v>
-      </c>
-      <c r="B33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33">
-        <v>2017</v>
-      </c>
-      <c r="G33">
-        <v>22.3964</v>
-      </c>
-      <c r="H33">
-        <v>114.1095</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33">
-        <v>7.15</v>
-      </c>
-      <c r="M33">
-        <v>2.954E-2</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" t="s">
-        <v>123</v>
-      </c>
-      <c r="P33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B34" t="s">
         <v>174</v>
@@ -3067,39 +3110,24 @@
         <v>175</v>
       </c>
       <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>2018</v>
+      </c>
+      <c r="K34" t="s">
         <v>176</v>
       </c>
-      <c r="E34">
-        <v>2015</v>
-      </c>
-      <c r="G34">
-        <v>51.333329999999997</v>
-      </c>
-      <c r="H34">
-        <v>12.383330000000001</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" t="s">
         <v>177</v>
       </c>
-      <c r="K34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34">
-        <v>0.57108800000000004</v>
-      </c>
-      <c r="M34">
-        <v>1.923E-3</v>
-      </c>
-      <c r="N34" t="s">
-        <v>47</v>
-      </c>
-      <c r="P34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B35" t="s">
         <v>178</v>
@@ -3108,42 +3136,48 @@
         <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="E35">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G35">
-        <v>-6.2</v>
+        <v>41.482222</v>
       </c>
       <c r="H35">
-        <v>106.816667</v>
+        <v>-81.669721999999993</v>
       </c>
       <c r="I35">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="J35" t="s">
         <v>180</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="L35">
-        <v>10.074999999999999</v>
+        <v>0.396698</v>
       </c>
       <c r="M35">
-        <v>1.5242E-2</v>
+        <v>4.8380000000000003E-3</v>
       </c>
       <c r="N35" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="P35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="S35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="B36" t="s">
         <v>182</v>
@@ -3152,127 +3186,136 @@
         <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="E36">
-        <v>2018</v>
+        <v>2017</v>
+      </c>
+      <c r="G36">
+        <v>53.479439999999997</v>
+      </c>
+      <c r="H36">
+        <v>-2.2452779999999999</v>
+      </c>
+      <c r="I36">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>185</v>
       </c>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>141</v>
+      </c>
+      <c r="L36">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="M36">
+        <v>1.056E-2</v>
       </c>
       <c r="N36" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="O36" t="s">
+        <v>186</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>73</v>
+      </c>
+      <c r="S36" t="s">
+        <v>181</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="E37">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G37">
-        <v>41.482222</v>
+        <v>32.221666999999997</v>
       </c>
       <c r="H37">
-        <v>-81.669721999999993</v>
-      </c>
-      <c r="I37">
-        <v>199</v>
+        <v>-110.926389</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s">
         <v>37</v>
       </c>
       <c r="L37">
-        <v>0.396698</v>
+        <v>0.52011600000000002</v>
       </c>
       <c r="M37">
-        <v>4.8380000000000003E-3</v>
+        <v>2.2039999999999998E-3</v>
       </c>
       <c r="N37" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="P37" t="s">
-        <v>30</v>
-      </c>
-      <c r="S37" t="s">
-        <v>189</v>
-      </c>
-      <c r="U37">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="E38">
         <v>2017</v>
       </c>
       <c r="G38">
-        <v>53.479439999999997</v>
+        <v>40.712777799999998</v>
       </c>
       <c r="H38">
-        <v>-2.2452779999999999</v>
+        <v>-74.005832999999996</v>
       </c>
       <c r="I38">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="J38" t="s">
         <v>193</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="L38">
-        <v>2.5529999999999999</v>
+        <v>8.6219999999999999</v>
       </c>
       <c r="M38">
-        <v>1.056E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
         <v>194</v>
       </c>
-      <c r="P38" t="s">
-        <v>73</v>
-      </c>
-      <c r="S38" t="s">
-        <v>189</v>
-      </c>
-      <c r="U38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="B39" t="s">
         <v>195</v>
@@ -3281,39 +3324,36 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G39">
-        <v>32.221666999999997</v>
+        <v>35.166670000000003</v>
       </c>
       <c r="H39">
-        <v>-110.926389</v>
+        <v>129.06666999999999</v>
       </c>
       <c r="J39" t="s">
         <v>197</v>
       </c>
       <c r="K39" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39">
-        <v>0.52011600000000002</v>
-      </c>
-      <c r="M39">
-        <v>2.2039999999999998E-3</v>
+        <v>198</v>
       </c>
       <c r="N39" t="s">
-        <v>162</v>
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
+        <v>186</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="B40" t="s">
         <v>199</v>
@@ -3322,16 +3362,16 @@
         <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E40">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G40">
-        <v>40.712777799999998</v>
+        <v>43.716667000000001</v>
       </c>
       <c r="H40">
-        <v>-74.005832999999996</v>
+        <v>10.4</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -3340,355 +3380,343 @@
         <v>201</v>
       </c>
       <c r="K40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40">
-        <v>8.6219999999999999</v>
-      </c>
-      <c r="M40">
-        <v>1.0999999999999999E-2</v>
+        <v>39</v>
       </c>
       <c r="N40" t="s">
         <v>28</v>
       </c>
       <c r="P40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>640</v>
+      </c>
+      <c r="B41" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41">
-        <v>593</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>203</v>
-      </c>
-      <c r="C41" t="s">
-        <v>204</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G41">
-        <v>35.166670000000003</v>
+        <v>50.083333000000003</v>
       </c>
       <c r="H41">
-        <v>129.06666999999999</v>
+        <v>14.416667</v>
+      </c>
+      <c r="I41">
+        <v>177</v>
       </c>
       <c r="J41" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s">
         <v>205</v>
       </c>
-      <c r="K41" t="s">
-        <v>206</v>
+      <c r="L41">
+        <v>1.294</v>
+      </c>
+      <c r="M41">
+        <v>2.6090000000000002E-3</v>
       </c>
       <c r="N41" t="s">
         <v>40</v>
       </c>
-      <c r="O41" t="s">
-        <v>194</v>
-      </c>
       <c r="P41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
         <v>207</v>
       </c>
-      <c r="C42" t="s">
-        <v>208</v>
-      </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>2018</v>
       </c>
       <c r="G42">
-        <v>43.716667000000001</v>
+        <v>25.066666999999999</v>
       </c>
       <c r="H42">
-        <v>10.4</v>
+        <v>121.516667</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" t="s">
         <v>209</v>
       </c>
-      <c r="K42" t="s">
-        <v>39</v>
+      <c r="L42">
+        <v>8.5</v>
+      </c>
+      <c r="M42">
+        <v>7.456E-3</v>
       </c>
       <c r="N42" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="O42" t="s">
+        <v>186</v>
       </c>
       <c r="P42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="B43" t="s">
         <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="E43">
         <v>2018</v>
       </c>
       <c r="G43">
-        <v>50.083333000000003</v>
+        <v>22.3964</v>
       </c>
       <c r="H43">
-        <v>14.416667</v>
+        <v>114.1095</v>
       </c>
       <c r="I43">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="L43">
-        <v>1.294</v>
+        <v>7.15</v>
       </c>
       <c r="M43">
-        <v>2.6090000000000002E-3</v>
+        <v>2.954E-2</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>2018</v>
       </c>
-      <c r="G44">
-        <v>25.066666999999999</v>
-      </c>
-      <c r="H44">
-        <v>121.516667</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>216</v>
-      </c>
       <c r="K44" t="s">
-        <v>217</v>
-      </c>
-      <c r="L44">
-        <v>8.5</v>
-      </c>
-      <c r="M44">
-        <v>7.456E-3</v>
+        <v>105</v>
       </c>
       <c r="N44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O44" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>2018</v>
       </c>
       <c r="G45">
-        <v>22.3964</v>
+        <v>47.566659999999999</v>
       </c>
       <c r="H45">
-        <v>114.1095</v>
+        <v>7.6</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="L45">
-        <v>7.15</v>
+        <v>0.17594000000000001</v>
       </c>
       <c r="M45">
-        <v>2.954E-2</v>
+        <v>7.5030000000000001E-3</v>
       </c>
       <c r="N45" t="s">
         <v>28</v>
       </c>
-      <c r="O45" t="s">
-        <v>123</v>
-      </c>
       <c r="P45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>177</v>
+      </c>
+      <c r="U45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46">
+        <v>2017</v>
+      </c>
+      <c r="G46">
+        <v>51.507221999999999</v>
+      </c>
+      <c r="H46">
+        <v>-0.1275</v>
+      </c>
+      <c r="I46">
+        <v>35</v>
+      </c>
+      <c r="J46" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46">
+        <v>9.7870000000000008</v>
+      </c>
+      <c r="M46">
+        <v>5.6369999999999996E-3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>728</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
         <v>219</v>
-      </c>
-      <c r="C46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46">
-        <v>2018</v>
-      </c>
-      <c r="K46" t="s">
-        <v>105</v>
-      </c>
-      <c r="N46" t="s">
-        <v>130</v>
-      </c>
-      <c r="P46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47">
-        <v>679</v>
-      </c>
-      <c r="B47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" t="s">
-        <v>221</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
       </c>
       <c r="E47">
-        <v>2018</v>
-      </c>
-      <c r="G47">
-        <v>47.566659999999999</v>
-      </c>
-      <c r="H47">
-        <v>7.6</v>
-      </c>
-      <c r="I47">
-        <v>254</v>
-      </c>
-      <c r="J47" t="s">
+        <v>2017</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>760</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" t="s">
         <v>222</v>
-      </c>
-      <c r="K47" t="s">
-        <v>184</v>
-      </c>
-      <c r="L47">
-        <v>0.17594000000000001</v>
-      </c>
-      <c r="M47">
-        <v>7.5030000000000001E-3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>28</v>
-      </c>
-      <c r="P47" t="s">
-        <v>185</v>
-      </c>
-      <c r="U47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48">
-        <v>697</v>
-      </c>
-      <c r="B48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" t="s">
-        <v>225</v>
       </c>
       <c r="E48">
         <v>2017</v>
       </c>
       <c r="G48">
-        <v>51.507221999999999</v>
+        <v>13.511666999999999</v>
       </c>
       <c r="H48">
-        <v>-0.1275</v>
+        <v>2.1252779999999998</v>
       </c>
       <c r="I48">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="L48">
-        <v>9.7870000000000008</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="M48">
-        <v>5.6369999999999996E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="N48" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="B49" t="s">
         <v>226</v>
@@ -3697,68 +3725,86 @@
         <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="E49">
         <v>2017</v>
       </c>
+      <c r="G49">
+        <v>59.329444000000002</v>
+      </c>
+      <c r="H49">
+        <v>18.068611000000001</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>96</v>
+      </c>
       <c r="K49" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="L49">
+        <v>1.538</v>
+      </c>
+      <c r="M49">
+        <v>4.3070000000000001E-3</v>
       </c>
       <c r="N49" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="P49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E50">
         <v>2017</v>
       </c>
       <c r="G50">
-        <v>13.511666999999999</v>
+        <v>-33.865000000000002</v>
       </c>
       <c r="H50">
-        <v>2.1252779999999998</v>
-      </c>
-      <c r="I50">
-        <v>207</v>
+        <v>151.20944399999999</v>
       </c>
       <c r="J50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K50" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="L50">
-        <v>0.23899999999999999</v>
+        <v>5.1310000000000002</v>
       </c>
       <c r="M50">
-        <v>5.4000000000000001E-4</v>
+        <v>4.15E-3</v>
       </c>
       <c r="N50" t="s">
         <v>47</v>
       </c>
       <c r="P50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="B51" t="s">
         <v>234</v>
@@ -3770,1076 +3816,1073 @@
         <v>236</v>
       </c>
       <c r="E51">
-        <v>2017</v>
-      </c>
-      <c r="G51">
-        <v>59.329444000000002</v>
-      </c>
-      <c r="H51">
-        <v>18.068611000000001</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51" t="s">
-        <v>41</v>
-      </c>
-      <c r="L51">
-        <v>1.538</v>
-      </c>
-      <c r="M51">
-        <v>4.3070000000000001E-3</v>
+        <v>2016</v>
       </c>
       <c r="N51" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="P51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="Q51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="240" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>787</v>
-      </c>
-      <c r="B52" t="s">
-        <v>237</v>
+        <v>877</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E52">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="G52">
-        <v>-33.865000000000002</v>
+        <v>48.487499999999997</v>
       </c>
       <c r="H52">
-        <v>151.20944399999999</v>
-      </c>
-      <c r="J52" t="s">
-        <v>240</v>
+        <v>1.6583300000000001</v>
       </c>
       <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P52" t="s">
+        <v>241</v>
+      </c>
+      <c r="S52" t="s">
+        <v>242</v>
+      </c>
+      <c r="U52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>879</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>2004</v>
+      </c>
+      <c r="G53">
+        <v>-37.813609999999997</v>
+      </c>
+      <c r="H53">
+        <v>144.96305599999999</v>
+      </c>
+      <c r="I53">
+        <v>31</v>
+      </c>
+      <c r="J53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53" t="s">
         <v>105</v>
       </c>
-      <c r="L52">
-        <v>5.1310000000000002</v>
-      </c>
-      <c r="M52">
-        <v>4.15E-3</v>
-      </c>
-      <c r="N52" t="s">
-        <v>47</v>
-      </c>
-      <c r="P52" t="s">
-        <v>30</v>
-      </c>
-      <c r="S52" t="s">
+      <c r="L53">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M53">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>149</v>
+      </c>
+      <c r="O53" t="s">
+        <v>245</v>
+      </c>
+      <c r="P53" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
-      <c r="A53">
-        <v>800</v>
-      </c>
-      <c r="B53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E53">
-        <v>2016</v>
-      </c>
-      <c r="N53" t="s">
-        <v>28</v>
-      </c>
-      <c r="P53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="240">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>877</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B54" t="s">
         <v>246</v>
       </c>
       <c r="C54" t="s">
         <v>247</v>
       </c>
       <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>2009</v>
+      </c>
+      <c r="G54">
+        <v>52.483055999999998</v>
+      </c>
+      <c r="H54">
+        <v>-1.8936109999999999</v>
+      </c>
+      <c r="I54">
+        <v>140</v>
+      </c>
+      <c r="J54" t="s">
         <v>248</v>
       </c>
-      <c r="E54">
-        <v>2008</v>
-      </c>
-      <c r="G54">
-        <v>48.487499999999997</v>
-      </c>
-      <c r="H54">
-        <v>1.6583300000000001</v>
-      </c>
       <c r="K54" t="s">
-        <v>27</v>
+        <v>141</v>
+      </c>
+      <c r="L54">
+        <v>2.44</v>
+      </c>
+      <c r="M54">
+        <v>1.0529999999999999E-2</v>
       </c>
       <c r="N54" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="P54" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>895</v>
+      </c>
+      <c r="B55" t="s">
         <v>249</v>
       </c>
-      <c r="S54" t="s">
+      <c r="C55" t="s">
         <v>250</v>
       </c>
-      <c r="U54">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="210">
-      <c r="A55">
-        <v>879</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55">
+        <v>2014</v>
+      </c>
+      <c r="G55">
+        <v>-34.928888999999998</v>
+      </c>
+      <c r="H55">
+        <v>138.601111</v>
+      </c>
+      <c r="J55" t="s">
         <v>251</v>
-      </c>
-      <c r="C55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55">
-        <v>2004</v>
-      </c>
-      <c r="G55">
-        <v>-37.813609999999997</v>
-      </c>
-      <c r="H55">
-        <v>144.96305599999999</v>
-      </c>
-      <c r="I55">
-        <v>31</v>
-      </c>
-      <c r="J55" t="s">
-        <v>104</v>
       </c>
       <c r="K55" t="s">
         <v>105</v>
       </c>
       <c r="L55">
+        <v>1.3339000000000001</v>
+      </c>
+      <c r="M55">
+        <v>4.08E-4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>252</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>899</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56">
+        <v>2015</v>
+      </c>
+      <c r="G56">
+        <v>-37.813609999999997</v>
+      </c>
+      <c r="H56">
+        <v>144.96305599999999</v>
+      </c>
+      <c r="I56">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56" t="s">
+        <v>105</v>
+      </c>
+      <c r="L56">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M55">
+      <c r="M56">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="N55" t="s">
-        <v>156</v>
-      </c>
-      <c r="O55" t="s">
-        <v>253</v>
-      </c>
-      <c r="P55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56">
-        <v>881</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="N56" t="s">
+        <v>149</v>
+      </c>
+      <c r="O56" t="s">
+        <v>245</v>
+      </c>
+      <c r="P56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>912</v>
+      </c>
+      <c r="B57" t="s">
         <v>254</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>255</v>
       </c>
-      <c r="D56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56">
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57">
         <v>2009</v>
       </c>
-      <c r="G56">
-        <v>52.483055999999998</v>
-      </c>
-      <c r="H56">
-        <v>-1.8936109999999999</v>
-      </c>
-      <c r="I56">
-        <v>140</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="G57">
+        <v>47</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>149</v>
+      </c>
+      <c r="O57" t="s">
         <v>256</v>
       </c>
-      <c r="K56" t="s">
-        <v>145</v>
-      </c>
-      <c r="L56">
-        <v>2.44</v>
-      </c>
-      <c r="M56">
-        <v>1.0529999999999999E-2</v>
-      </c>
-      <c r="N56" t="s">
-        <v>28</v>
-      </c>
-      <c r="P56" t="s">
-        <v>30</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57">
-        <v>895</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="P57" t="s">
         <v>257</v>
       </c>
-      <c r="C57" t="s">
+      <c r="U57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="225" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>926</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57">
+      <c r="C58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58">
         <v>2014</v>
       </c>
-      <c r="G57">
-        <v>-34.928888999999998</v>
-      </c>
-      <c r="H57">
-        <v>138.601111</v>
-      </c>
-      <c r="J57" t="s">
-        <v>259</v>
-      </c>
-      <c r="K57" t="s">
-        <v>105</v>
-      </c>
-      <c r="L57">
-        <v>1.3339000000000001</v>
-      </c>
-      <c r="M57">
-        <v>4.08E-4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" t="s">
-        <v>260</v>
-      </c>
-      <c r="U57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="180">
-      <c r="A58">
-        <v>899</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="N58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="240" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>949</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C58" t="s">
-        <v>252</v>
-      </c>
-      <c r="D58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58">
-        <v>2015</v>
-      </c>
-      <c r="G58">
-        <v>-37.813609999999997</v>
-      </c>
-      <c r="H58">
-        <v>144.96305599999999</v>
-      </c>
-      <c r="I58">
+      <c r="C59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59">
+        <v>2014</v>
+      </c>
+      <c r="G59">
+        <v>51.133000000000003</v>
+      </c>
+      <c r="H59">
+        <v>-1.95</v>
+      </c>
+      <c r="N59" t="s">
+        <v>126</v>
+      </c>
+      <c r="P59" t="s">
+        <v>120</v>
+      </c>
+      <c r="U59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="240" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>976</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" t="s">
         <v>31</v>
-      </c>
-      <c r="J58" t="s">
-        <v>104</v>
-      </c>
-      <c r="K58" t="s">
-        <v>105</v>
-      </c>
-      <c r="L58">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M58">
-        <v>4.8999999999999998E-4</v>
-      </c>
-      <c r="N58" t="s">
-        <v>156</v>
-      </c>
-      <c r="O58" t="s">
-        <v>253</v>
-      </c>
-      <c r="P58" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59">
-        <v>912</v>
-      </c>
-      <c r="B59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C59" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59">
-        <v>2009</v>
-      </c>
-      <c r="G59">
-        <v>47</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" t="s">
-        <v>156</v>
-      </c>
-      <c r="O59" t="s">
-        <v>264</v>
-      </c>
-      <c r="P59" t="s">
-        <v>265</v>
-      </c>
-      <c r="U59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="225">
-      <c r="A60">
-        <v>926</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60" t="s">
-        <v>267</v>
-      </c>
-      <c r="D60" t="s">
-        <v>268</v>
       </c>
       <c r="E60">
         <v>2014</v>
       </c>
+      <c r="K60" t="s">
+        <v>266</v>
+      </c>
       <c r="N60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="240">
+        <v>149</v>
+      </c>
+      <c r="P60" t="s">
+        <v>257</v>
+      </c>
+      <c r="U60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>949</v>
+        <v>1023</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61">
+        <v>2018</v>
+      </c>
+      <c r="G61">
+        <v>41.836944000000003</v>
+      </c>
+      <c r="H61">
+        <v>-87.684721999999994</v>
+      </c>
+      <c r="J61" t="s">
         <v>269</v>
       </c>
-      <c r="C61" t="s">
+      <c r="K61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="M61">
+        <v>1.157E-2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1046</v>
+      </c>
+      <c r="B62" t="s">
         <v>270</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
         <v>271</v>
       </c>
-      <c r="E61">
-        <v>2014</v>
-      </c>
-      <c r="G61">
-        <v>51.133000000000003</v>
-      </c>
-      <c r="H61">
-        <v>-1.95</v>
-      </c>
-      <c r="N61" t="s">
-        <v>130</v>
-      </c>
-      <c r="P61" t="s">
-        <v>124</v>
-      </c>
-      <c r="U61">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="240">
-      <c r="A62">
-        <v>976</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" t="s">
         <v>272</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62">
+        <v>2008</v>
+      </c>
+      <c r="G62">
+        <v>52.235159000000003</v>
+      </c>
+      <c r="H62">
+        <v>0.951905</v>
+      </c>
+      <c r="J62" t="s">
         <v>273</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62">
-        <v>2014</v>
       </c>
       <c r="K62" t="s">
         <v>274</v>
       </c>
+      <c r="L62">
+        <v>1.72E-3</v>
+      </c>
       <c r="N62" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P62" t="s">
-        <v>265</v>
-      </c>
-      <c r="U62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="210">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1023</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>275</v>
+        <v>1047</v>
+      </c>
+      <c r="B63" t="s">
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="E63">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="G63">
-        <v>41.836944000000003</v>
+        <v>39.823430000000002</v>
       </c>
       <c r="H63">
-        <v>-87.684721999999994</v>
-      </c>
-      <c r="J63" t="s">
-        <v>277</v>
+        <v>-74.539400000000001</v>
       </c>
       <c r="K63" t="s">
         <v>37</v>
       </c>
-      <c r="L63">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="M63">
-        <v>1.157E-2</v>
-      </c>
       <c r="N63" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>279</v>
+      </c>
+      <c r="S63" t="s">
+        <v>137</v>
+      </c>
+      <c r="U63">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E64">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G64">
-        <v>52.235159000000003</v>
+        <v>39.283332999999999</v>
       </c>
       <c r="H64">
-        <v>0.951905</v>
+        <v>-76.616659999999996</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K64" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="L64">
-        <v>1.72E-3</v>
+        <v>0.62</v>
+      </c>
+      <c r="M64">
+        <v>6.7390000000000002E-3</v>
       </c>
       <c r="N64" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="O64" t="s">
+        <v>284</v>
       </c>
       <c r="P64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1050</v>
+      </c>
+      <c r="B65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D65" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65">
+        <v>2014</v>
+      </c>
+      <c r="G65">
+        <v>39.283332999999999</v>
+      </c>
+      <c r="H65">
+        <v>-76.616659999999996</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65">
-        <v>1047</v>
-      </c>
-      <c r="B65" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" t="s">
-        <v>285</v>
-      </c>
-      <c r="D65" t="s">
-        <v>286</v>
-      </c>
-      <c r="E65">
-        <v>2011</v>
-      </c>
-      <c r="G65">
-        <v>39.823430000000002</v>
-      </c>
-      <c r="H65">
-        <v>-74.539400000000001</v>
       </c>
       <c r="K65" t="s">
         <v>37</v>
       </c>
+      <c r="L65">
+        <v>0.62</v>
+      </c>
+      <c r="M65">
+        <v>6.7390000000000002E-3</v>
+      </c>
       <c r="N65" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P65" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="S65" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="U65">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66">
+        <v>2013</v>
+      </c>
+      <c r="G66">
+        <v>53.533332999999999</v>
+      </c>
+      <c r="H66">
+        <v>-113.5</v>
+      </c>
+      <c r="I66">
+        <v>645</v>
+      </c>
+      <c r="J66" t="s">
+        <v>292</v>
+      </c>
+      <c r="K66" t="s">
+        <v>293</v>
+      </c>
+      <c r="L66">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="M66">
+        <v>1.8569999999999999E-3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>149</v>
+      </c>
+      <c r="O66" t="s">
+        <v>294</v>
+      </c>
+      <c r="P66" t="s">
+        <v>257</v>
+      </c>
+      <c r="S66" t="s">
         <v>288</v>
       </c>
-      <c r="C66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66">
-        <v>2010</v>
-      </c>
-      <c r="G66">
-        <v>39.283332999999999</v>
-      </c>
-      <c r="H66">
-        <v>-76.616659999999996</v>
-      </c>
-      <c r="I66">
+      <c r="U66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1052</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67">
+        <v>2006</v>
+      </c>
+      <c r="G67">
+        <v>47.566667000000002</v>
+      </c>
+      <c r="H67">
+        <v>7.6</v>
+      </c>
+      <c r="I67">
+        <v>254</v>
+      </c>
+      <c r="J67" t="s">
+        <v>214</v>
+      </c>
+      <c r="K67" t="s">
+        <v>176</v>
+      </c>
+      <c r="L67">
+        <v>0.17594000000000001</v>
+      </c>
+      <c r="M67">
+        <v>7.3769999999999999E-3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1055</v>
+      </c>
+      <c r="B68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" t="s">
+        <v>300</v>
+      </c>
+      <c r="E68">
+        <v>2008</v>
+      </c>
+      <c r="G68">
+        <v>40.712777799999998</v>
+      </c>
+      <c r="H68">
+        <v>-74.005832999999996</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>193</v>
+      </c>
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="M68">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>40</v>
+      </c>
+      <c r="P68" t="s">
+        <v>301</v>
+      </c>
+      <c r="U68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1056</v>
+      </c>
+      <c r="B69" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69">
+        <v>2007</v>
+      </c>
+      <c r="G69">
+        <v>59.329444000000002</v>
+      </c>
+      <c r="H69">
+        <v>18.068611000000001</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>291</v>
-      </c>
-      <c r="K66" t="s">
-        <v>37</v>
-      </c>
-      <c r="L66">
-        <v>0.62</v>
-      </c>
-      <c r="M66">
-        <v>6.7390000000000002E-3</v>
-      </c>
-      <c r="N66" t="s">
-        <v>156</v>
-      </c>
-      <c r="O66" t="s">
-        <v>292</v>
-      </c>
-      <c r="P66" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67">
-        <v>1050</v>
-      </c>
-      <c r="B67" t="s">
-        <v>293</v>
-      </c>
-      <c r="C67" t="s">
-        <v>294</v>
-      </c>
-      <c r="D67" t="s">
-        <v>295</v>
-      </c>
-      <c r="E67">
-        <v>2014</v>
-      </c>
-      <c r="G67">
-        <v>39.283332999999999</v>
-      </c>
-      <c r="H67">
-        <v>-76.616659999999996</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>291</v>
-      </c>
-      <c r="K67" t="s">
-        <v>37</v>
-      </c>
-      <c r="L67">
-        <v>0.62</v>
-      </c>
-      <c r="M67">
-        <v>6.7390000000000002E-3</v>
-      </c>
-      <c r="N67" t="s">
-        <v>156</v>
-      </c>
-      <c r="P67" t="s">
-        <v>265</v>
-      </c>
-      <c r="S67" t="s">
-        <v>296</v>
-      </c>
-      <c r="U67">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68">
-        <v>1051</v>
-      </c>
-      <c r="B68" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68">
-        <v>2013</v>
-      </c>
-      <c r="G68">
-        <v>53.533332999999999</v>
-      </c>
-      <c r="H68">
-        <v>-113.5</v>
-      </c>
-      <c r="I68">
-        <v>645</v>
-      </c>
-      <c r="J68" t="s">
-        <v>300</v>
-      </c>
-      <c r="K68" t="s">
-        <v>301</v>
-      </c>
-      <c r="L68">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="M68">
-        <v>1.8569999999999999E-3</v>
-      </c>
-      <c r="N68" t="s">
-        <v>156</v>
-      </c>
-      <c r="O68" t="s">
-        <v>302</v>
-      </c>
-      <c r="P68" t="s">
-        <v>265</v>
-      </c>
-      <c r="S68" t="s">
-        <v>296</v>
-      </c>
-      <c r="U68">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69">
-        <v>1052</v>
-      </c>
-      <c r="B69" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69">
+        <v>1.538</v>
+      </c>
+      <c r="M69">
+        <v>4.3070000000000001E-3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>40</v>
+      </c>
+      <c r="P69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1059</v>
+      </c>
+      <c r="B70" t="s">
         <v>304</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C70" t="s">
         <v>305</v>
       </c>
-      <c r="E69">
-        <v>2006</v>
-      </c>
-      <c r="G69">
-        <v>47.566667000000002</v>
-      </c>
-      <c r="H69">
-        <v>7.6</v>
-      </c>
-      <c r="I69">
-        <v>254</v>
-      </c>
-      <c r="J69" t="s">
-        <v>222</v>
-      </c>
-      <c r="K69" t="s">
-        <v>184</v>
-      </c>
-      <c r="L69">
-        <v>0.17594000000000001</v>
-      </c>
-      <c r="M69">
-        <v>7.3769999999999999E-3</v>
-      </c>
-      <c r="N69" t="s">
-        <v>28</v>
-      </c>
-      <c r="P69" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70">
-        <v>1055</v>
-      </c>
-      <c r="B70" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" t="s">
-        <v>307</v>
-      </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="E70">
         <v>2008</v>
       </c>
-      <c r="G70">
-        <v>40.712777799999998</v>
-      </c>
-      <c r="H70">
-        <v>-74.005832999999996</v>
-      </c>
-      <c r="I70">
-        <v>10</v>
-      </c>
-      <c r="J70" t="s">
-        <v>201</v>
-      </c>
       <c r="K70" t="s">
-        <v>37</v>
-      </c>
-      <c r="L70">
-        <v>8.6219999999999999</v>
-      </c>
-      <c r="M70">
-        <v>1.0999999999999999E-2</v>
+        <v>141</v>
       </c>
       <c r="N70" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="O70" t="s">
+        <v>306</v>
       </c>
       <c r="P70" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1062</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" t="s">
         <v>309</v>
       </c>
-      <c r="U70">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71">
-        <v>1056</v>
-      </c>
-      <c r="B71" t="s">
-        <v>310</v>
-      </c>
-      <c r="C71" t="s">
-        <v>311</v>
-      </c>
-      <c r="D71" t="s">
-        <v>109</v>
-      </c>
       <c r="E71">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>59.329444000000002</v>
+        <v>52.483055999999998</v>
       </c>
       <c r="H71">
-        <v>18.068611000000001</v>
+        <v>-1.8936109999999999</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J71" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="L71">
-        <v>1.538</v>
+        <v>2.44</v>
       </c>
       <c r="M71">
-        <v>4.3070000000000001E-3</v>
+        <v>1.0529999999999999E-2</v>
       </c>
       <c r="N71" t="s">
         <v>40</v>
       </c>
+      <c r="O71" t="s">
+        <v>306</v>
+      </c>
       <c r="P71" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B72" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72">
+        <v>2009</v>
+      </c>
+      <c r="G72">
+        <v>59.329444000000002</v>
+      </c>
+      <c r="H72">
+        <v>18.068611000000001</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+      <c r="K72" t="s">
+        <v>41</v>
+      </c>
+      <c r="L72">
+        <v>1.538</v>
+      </c>
+      <c r="M72">
+        <v>4.3070000000000001E-3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>40</v>
+      </c>
+      <c r="O72" t="s">
+        <v>306</v>
+      </c>
+      <c r="P72" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1067</v>
+      </c>
+      <c r="B73" t="s">
         <v>312</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>313</v>
       </c>
-      <c r="D72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72">
-        <v>2008</v>
-      </c>
-      <c r="K72" t="s">
-        <v>145</v>
-      </c>
-      <c r="N72" t="s">
-        <v>33</v>
-      </c>
-      <c r="O72" t="s">
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73">
+        <v>1999</v>
+      </c>
+      <c r="G73">
+        <v>52.204999999999998</v>
+      </c>
+      <c r="H73">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
         <v>314</v>
       </c>
-      <c r="P72" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73">
-        <v>1062</v>
-      </c>
-      <c r="B73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" t="s">
-        <v>316</v>
-      </c>
-      <c r="D73" t="s">
-        <v>317</v>
-      </c>
-      <c r="E73">
-        <v>2011</v>
-      </c>
-      <c r="G73">
-        <v>52.483055999999998</v>
-      </c>
-      <c r="H73">
-        <v>-1.8936109999999999</v>
-      </c>
-      <c r="I73">
-        <v>140</v>
-      </c>
-      <c r="J73" t="s">
-        <v>256</v>
-      </c>
       <c r="K73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L73">
-        <v>2.44</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M73">
-        <v>1.0529999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N73" t="s">
         <v>40</v>
       </c>
-      <c r="O73" t="s">
-        <v>314</v>
-      </c>
       <c r="P73" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
         <v>317</v>
       </c>
       <c r="E74">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="G74">
-        <v>59.329444000000002</v>
+        <v>52.4</v>
       </c>
       <c r="H74">
-        <v>18.068611000000001</v>
+        <v>16.916667</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J74" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="L74">
-        <v>1.538</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M74">
-        <v>4.3070000000000001E-3</v>
+        <v>4.215E-3</v>
       </c>
       <c r="N74" t="s">
         <v>40</v>
       </c>
-      <c r="O74" t="s">
-        <v>314</v>
-      </c>
       <c r="P74" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75">
+        <v>2008</v>
+      </c>
+      <c r="G75">
+        <v>40.712777799999998</v>
+      </c>
+      <c r="H75">
+        <v>-74.005832999999996</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75" t="s">
+        <v>193</v>
+      </c>
+      <c r="K75" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="M75">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1076</v>
+      </c>
+      <c r="B76" t="s">
         <v>320</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>321</v>
       </c>
-      <c r="D75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75">
-        <v>1999</v>
-      </c>
-      <c r="G75">
-        <v>52.204999999999998</v>
-      </c>
-      <c r="H75">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="I75">
-        <v>6</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76">
+        <v>2014</v>
+      </c>
+      <c r="G76">
+        <v>48.856699999999996</v>
+      </c>
+      <c r="H76">
+        <v>2.3508</v>
+      </c>
+      <c r="J76" t="s">
         <v>322</v>
       </c>
-      <c r="K75" t="s">
-        <v>145</v>
-      </c>
-      <c r="L75">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M75">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="N75" t="s">
-        <v>40</v>
-      </c>
-      <c r="P75" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
-      <c r="A76">
-        <v>1069</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76">
+        <v>10.601122</v>
+      </c>
+      <c r="M76">
+        <v>3.7650000000000001E-3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1093</v>
+      </c>
+      <c r="B77" t="s">
         <v>323</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>324</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>325</v>
       </c>
-      <c r="E76">
-        <v>2012</v>
-      </c>
-      <c r="G76">
-        <v>52.4</v>
-      </c>
-      <c r="H76">
-        <v>16.916667</v>
-      </c>
-      <c r="I76">
-        <v>60</v>
-      </c>
-      <c r="J76" t="s">
-        <v>133</v>
-      </c>
-      <c r="K76" t="s">
-        <v>134</v>
-      </c>
-      <c r="L76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M76">
-        <v>4.215E-3</v>
-      </c>
-      <c r="N76" t="s">
-        <v>40</v>
-      </c>
-      <c r="P76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
-      <c r="A77">
-        <v>1070</v>
-      </c>
-      <c r="B77" t="s">
-        <v>326</v>
-      </c>
-      <c r="C77" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" t="s">
-        <v>308</v>
-      </c>
       <c r="E77">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="G77">
         <v>40.712777799999998</v>
@@ -4851,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="J77" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K77" t="s">
         <v>37</v>
@@ -4863,27 +4906,30 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N77" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="O77" t="s">
+        <v>326</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="B78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" t="s">
         <v>328</v>
       </c>
-      <c r="C78" t="s">
-        <v>329</v>
-      </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E78">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G78">
         <v>48.856699999999996</v>
@@ -4892,7 +4938,7 @@
         <v>2.3508</v>
       </c>
       <c r="J78" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K78" t="s">
         <v>27</v>
@@ -4906,482 +4952,449 @@
       <c r="N78" t="s">
         <v>33</v>
       </c>
+      <c r="O78" t="s">
+        <v>329</v>
+      </c>
       <c r="P78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="B79" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" t="s">
-        <v>332</v>
-      </c>
       <c r="D79" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="E79">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G79">
-        <v>40.712777799999998</v>
+        <v>-37.813609999999997</v>
       </c>
       <c r="H79">
-        <v>-74.005832999999996</v>
+        <v>144.96305599999999</v>
       </c>
       <c r="I79">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J79" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="K79" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="L79">
-        <v>8.6219999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M79">
-        <v>1.0999999999999999E-2</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="N79" t="s">
         <v>40</v>
       </c>
       <c r="O79" t="s">
+        <v>326</v>
+      </c>
+      <c r="P79" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" t="s">
         <v>334</v>
       </c>
-      <c r="P79" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80">
-        <v>1094</v>
-      </c>
-      <c r="B80" t="s">
-        <v>335</v>
-      </c>
-      <c r="C80" t="s">
-        <v>336</v>
-      </c>
-      <c r="D80" t="s">
-        <v>248</v>
-      </c>
       <c r="E80">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G80">
-        <v>48.856699999999996</v>
+        <v>41.836944000000003</v>
       </c>
       <c r="H80">
-        <v>2.3508</v>
+        <v>-87.684721999999994</v>
       </c>
       <c r="J80" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="K80" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L80">
-        <v>10.601122</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="M80">
-        <v>3.7650000000000001E-3</v>
+        <v>1.157E-2</v>
       </c>
       <c r="N80" t="s">
         <v>33</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
+        <v>301</v>
+      </c>
+      <c r="S80" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" t="s">
         <v>337</v>
       </c>
-      <c r="P80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="A81">
-        <v>1101</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>338</v>
       </c>
-      <c r="C81" t="s">
-        <v>339</v>
-      </c>
-      <c r="D81" t="s">
-        <v>248</v>
-      </c>
       <c r="E81">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="G81">
-        <v>-37.813609999999997</v>
+        <v>40.712777799999998</v>
       </c>
       <c r="H81">
-        <v>144.96305599999999</v>
+        <v>-74.005832999999996</v>
       </c>
       <c r="I81">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="J81" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="K81" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="L81">
-        <v>4.9000000000000004</v>
+        <v>8.6219999999999999</v>
       </c>
       <c r="M81">
-        <v>4.8999999999999998E-4</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N81" t="s">
         <v>40</v>
       </c>
       <c r="O81" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>275</v>
+      </c>
+      <c r="U81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="B82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82" t="s">
         <v>340</v>
       </c>
-      <c r="C82" t="s">
-        <v>341</v>
-      </c>
       <c r="D82" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
       <c r="G82">
+        <v>43.7</v>
+      </c>
+      <c r="H82">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="I82">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s">
+        <v>52</v>
+      </c>
+      <c r="K82" t="s">
+        <v>53</v>
+      </c>
+      <c r="L82">
+        <v>5.1327939999999996</v>
+      </c>
+      <c r="M82">
+        <v>2.931E-3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>81</v>
+      </c>
+      <c r="P82" t="s">
+        <v>341</v>
+      </c>
+      <c r="U82">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1120</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83">
+        <v>2014</v>
+      </c>
+      <c r="G83">
+        <v>50.371389000000001</v>
+      </c>
+      <c r="H83">
+        <v>-4.1422220000000003</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>344</v>
+      </c>
+      <c r="K83" t="s">
+        <v>141</v>
+      </c>
+      <c r="L83">
+        <v>0.2631</v>
+      </c>
+      <c r="M83">
+        <v>8.8769999999999995E-3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>33</v>
+      </c>
+      <c r="O83" t="s">
+        <v>345</v>
+      </c>
+      <c r="P83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84">
+        <v>2015</v>
+      </c>
+      <c r="G84">
         <v>41.836944000000003</v>
       </c>
-      <c r="H82">
+      <c r="H84">
         <v>-87.684721999999994</v>
       </c>
-      <c r="J82" t="s">
-        <v>277</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="J84" t="s">
+        <v>269</v>
+      </c>
+      <c r="K84" t="s">
         <v>37</v>
       </c>
-      <c r="L82">
+      <c r="L84">
         <v>2.6949999999999998</v>
       </c>
-      <c r="M82">
+      <c r="M84">
         <v>1.157E-2</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N84" t="s">
         <v>33</v>
       </c>
-      <c r="P82" t="s">
-        <v>309</v>
-      </c>
-      <c r="S82" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="A83">
-        <v>1107</v>
-      </c>
-      <c r="B83" t="s">
-        <v>344</v>
-      </c>
-      <c r="C83" t="s">
-        <v>345</v>
-      </c>
-      <c r="D83" t="s">
-        <v>346</v>
-      </c>
-      <c r="E83">
-        <v>2011</v>
-      </c>
-      <c r="G83">
-        <v>40.712777799999998</v>
-      </c>
-      <c r="H83">
-        <v>-74.005832999999996</v>
-      </c>
-      <c r="I83">
-        <v>10</v>
-      </c>
-      <c r="J83" t="s">
-        <v>201</v>
-      </c>
-      <c r="K83" t="s">
-        <v>37</v>
-      </c>
-      <c r="L83">
-        <v>8.6219999999999999</v>
-      </c>
-      <c r="M83">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N83" t="s">
-        <v>40</v>
-      </c>
-      <c r="O83" t="s">
-        <v>334</v>
-      </c>
-      <c r="P83" t="s">
-        <v>283</v>
-      </c>
-      <c r="U83">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
-      <c r="A84">
-        <v>1114</v>
-      </c>
-      <c r="B84" t="s">
-        <v>347</v>
-      </c>
-      <c r="C84" t="s">
-        <v>348</v>
-      </c>
-      <c r="D84" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84">
-        <v>2014</v>
-      </c>
-      <c r="G84">
-        <v>43.7</v>
-      </c>
-      <c r="H84">
-        <v>-79.400000000000006</v>
-      </c>
-      <c r="I84">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s">
-        <v>52</v>
-      </c>
-      <c r="K84" t="s">
-        <v>53</v>
-      </c>
-      <c r="L84">
-        <v>5.1327939999999996</v>
-      </c>
-      <c r="M84">
-        <v>2.931E-3</v>
-      </c>
-      <c r="N84" t="s">
-        <v>81</v>
-      </c>
       <c r="P84" t="s">
+        <v>301</v>
+      </c>
+      <c r="U84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1126</v>
+      </c>
+      <c r="B85" t="s">
         <v>349</v>
       </c>
-      <c r="U84">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
-      <c r="A85">
-        <v>1120</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>350</v>
       </c>
-      <c r="C85" t="s">
-        <v>351</v>
-      </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E85">
-        <v>2014</v>
-      </c>
-      <c r="G85">
-        <v>50.371389000000001</v>
-      </c>
-      <c r="H85">
-        <v>-4.1422220000000003</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>352</v>
+        <v>2016</v>
       </c>
       <c r="K85" t="s">
-        <v>145</v>
-      </c>
-      <c r="L85">
-        <v>0.2631</v>
-      </c>
-      <c r="M85">
-        <v>8.8769999999999995E-3</v>
+        <v>105</v>
       </c>
       <c r="N85" t="s">
         <v>33</v>
       </c>
       <c r="O85" t="s">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="P85" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D86" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
       <c r="G86">
-        <v>41.836944000000003</v>
+        <v>50.802999999999997</v>
       </c>
       <c r="H86">
-        <v>-87.684721999999994</v>
+        <v>-4.1099999999999998E-2</v>
       </c>
       <c r="J86" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="K86" t="s">
-        <v>37</v>
-      </c>
-      <c r="L86">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="M86">
-        <v>1.157E-2</v>
+        <v>141</v>
       </c>
       <c r="N86" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
-      </c>
-      <c r="U86">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="E87">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K87" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="N87" t="s">
         <v>33</v>
       </c>
       <c r="O87" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="P87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>357</v>
+      </c>
+      <c r="C88" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
-      <c r="A88">
-        <v>1127</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="E88">
+        <v>2014</v>
+      </c>
+      <c r="K88" t="s">
+        <v>141</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+      <c r="O88" t="s">
         <v>359</v>
       </c>
-      <c r="C88" t="s">
+      <c r="P88" t="s">
         <v>360</v>
       </c>
-      <c r="D88" t="s">
-        <v>346</v>
-      </c>
-      <c r="E88">
-        <v>2015</v>
-      </c>
-      <c r="G88">
-        <v>50.802999999999997</v>
-      </c>
-      <c r="H88">
-        <v>-4.1099999999999998E-2</v>
-      </c>
-      <c r="J88" t="s">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1137</v>
+      </c>
+      <c r="B89" t="s">
         <v>361</v>
       </c>
-      <c r="K88" t="s">
-        <v>145</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="C89" t="s">
+        <v>362</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89">
+        <v>2011</v>
+      </c>
+      <c r="K89" t="s">
+        <v>363</v>
+      </c>
+      <c r="N89" t="s">
         <v>40</v>
       </c>
-      <c r="P88" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
-      <c r="A89">
-        <v>1134</v>
-      </c>
-      <c r="B89" t="s">
-        <v>362</v>
-      </c>
-      <c r="C89" t="s">
-        <v>363</v>
-      </c>
-      <c r="D89" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89">
-        <v>2015</v>
-      </c>
-      <c r="K89" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" t="s">
-        <v>33</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1156</v>
+      </c>
+      <c r="B90" t="s">
         <v>364</v>
       </c>
-      <c r="P89" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
-      <c r="A90">
-        <v>1136</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>365</v>
-      </c>
-      <c r="C90" t="s">
-        <v>366</v>
       </c>
       <c r="D90" t="s">
         <v>317</v>
@@ -5389,81 +5402,123 @@
       <c r="E90">
         <v>2014</v>
       </c>
+      <c r="G90">
+        <v>57.7</v>
+      </c>
+      <c r="H90">
+        <v>11.966666999999999</v>
+      </c>
+      <c r="I90">
+        <v>12</v>
+      </c>
+      <c r="J90" t="s">
+        <v>366</v>
+      </c>
       <c r="K90" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="L90">
+        <v>0.58182199999999995</v>
+      </c>
+      <c r="M90">
+        <v>2.8660000000000001E-3</v>
       </c>
       <c r="N90" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P90" t="s">
+        <v>301</v>
+      </c>
+      <c r="U90">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1167</v>
+      </c>
+      <c r="B91" t="s">
         <v>367</v>
       </c>
-      <c r="P90" t="s">
+      <c r="C91" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
-      <c r="A91">
-        <v>1137</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91">
+        <v>2016</v>
+      </c>
+      <c r="G91">
+        <v>52.516666999999998</v>
+      </c>
+      <c r="H91">
+        <v>13.388889000000001</v>
+      </c>
+      <c r="I91">
+        <v>34</v>
+      </c>
+      <c r="J91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s">
+        <v>79</v>
+      </c>
+      <c r="L91">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="M91">
+        <v>4.165E-2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>47</v>
+      </c>
+      <c r="O91" t="s">
         <v>369</v>
       </c>
-      <c r="C91" t="s">
+      <c r="P91" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1198</v>
+      </c>
+      <c r="B92" t="s">
         <v>370</v>
       </c>
-      <c r="D91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91">
-        <v>2011</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="C92" t="s">
         <v>371</v>
       </c>
-      <c r="N91" t="s">
-        <v>40</v>
-      </c>
-      <c r="P91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
-      <c r="A92">
-        <v>1156</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>372</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92">
+        <v>2017</v>
+      </c>
+      <c r="G92">
+        <v>45.5</v>
+      </c>
+      <c r="H92">
+        <v>-73.566670000000002</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92" t="s">
         <v>373</v>
       </c>
-      <c r="D92" t="s">
-        <v>325</v>
-      </c>
-      <c r="E92">
-        <v>2014</v>
-      </c>
-      <c r="G92">
-        <v>57.7</v>
-      </c>
-      <c r="H92">
-        <v>11.966666999999999</v>
-      </c>
-      <c r="I92">
-        <v>12</v>
-      </c>
-      <c r="J92" t="s">
-        <v>374</v>
-      </c>
       <c r="K92" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L92">
-        <v>0.58182199999999995</v>
+        <v>3.5190000000000001</v>
       </c>
       <c r="M92">
-        <v>2.8660000000000001E-3</v>
+        <v>2.2780000000000001E-3</v>
       </c>
       <c r="N92" t="s">
         <v>40</v>
@@ -5472,159 +5527,153 @@
         <v>106</v>
       </c>
       <c r="P92" t="s">
-        <v>309</v>
-      </c>
-      <c r="U92">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1167</v>
+        <v>1201</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="G93">
-        <v>52.516666999999998</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="H93">
-        <v>13.388889000000001</v>
+        <v>-112.06667</v>
       </c>
       <c r="I93">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="J93" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K93" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="L93">
-        <v>3.7109999999999999</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="M93">
-        <v>4.165E-2</v>
+        <v>3.1449999999999998E-3</v>
       </c>
       <c r="N93" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O93" t="s">
+        <v>375</v>
+      </c>
+      <c r="P93" t="s">
+        <v>301</v>
+      </c>
+      <c r="U93">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1223</v>
+      </c>
+      <c r="B94" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" t="s">
         <v>377</v>
       </c>
-      <c r="P93" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
-      <c r="A94">
-        <v>1198</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94">
+        <v>2018</v>
+      </c>
+      <c r="G94">
+        <v>42.101388999999998</v>
+      </c>
+      <c r="H94">
+        <v>-72.590277999999998</v>
+      </c>
+      <c r="I94">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
         <v>378</v>
       </c>
-      <c r="C94" t="s">
+      <c r="K94" t="s">
+        <v>37</v>
+      </c>
+      <c r="L94">
+        <v>0.15475800000000001</v>
+      </c>
+      <c r="M94">
+        <v>4.9919999999999999E-3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" t="s">
         <v>379</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1255</v>
+      </c>
+      <c r="B95" t="s">
         <v>380</v>
       </c>
-      <c r="E94">
-        <v>2017</v>
-      </c>
-      <c r="G94">
-        <v>45.5</v>
-      </c>
-      <c r="H94">
-        <v>-73.566670000000002</v>
-      </c>
-      <c r="I94">
-        <v>6</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="C95" t="s">
         <v>381</v>
-      </c>
-      <c r="K94" t="s">
-        <v>53</v>
-      </c>
-      <c r="L94">
-        <v>3.5190000000000001</v>
-      </c>
-      <c r="M94">
-        <v>2.2780000000000001E-3</v>
-      </c>
-      <c r="N94" t="s">
-        <v>40</v>
-      </c>
-      <c r="O94" t="s">
-        <v>106</v>
-      </c>
-      <c r="P94" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
-      <c r="A95">
-        <v>1201</v>
-      </c>
-      <c r="B95" t="s">
-        <v>382</v>
-      </c>
-      <c r="C95" t="s">
-        <v>71</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
       </c>
       <c r="E95">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G95">
-        <v>33.450000000000003</v>
+        <v>48.179349999999999</v>
       </c>
       <c r="H95">
-        <v>-112.06667</v>
+        <v>16.326241</v>
       </c>
       <c r="I95">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="J95" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="K95" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="L95">
-        <v>1.6259999999999999</v>
+        <v>1.889</v>
       </c>
       <c r="M95">
-        <v>3.1449999999999998E-3</v>
+        <v>4.5630000000000002E-3</v>
       </c>
       <c r="N95" t="s">
-        <v>33</v>
-      </c>
-      <c r="O95" t="s">
-        <v>383</v>
+        <v>28</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
-      </c>
-      <c r="U95">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>301</v>
+      </c>
+      <c r="X95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1223</v>
+        <v>1262</v>
       </c>
       <c r="B96" t="s">
         <v>384</v>
@@ -5633,19 +5682,19 @@
         <v>385</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="E96">
         <v>2018</v>
       </c>
       <c r="G96">
-        <v>42.101388999999998</v>
+        <v>38.627222000000003</v>
       </c>
       <c r="H96">
-        <v>-72.590277999999998</v>
+        <v>-90.197778</v>
       </c>
       <c r="I96">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="J96" t="s">
         <v>386</v>
@@ -5654,21 +5703,21 @@
         <v>37</v>
       </c>
       <c r="L96">
-        <v>0.15475800000000001</v>
+        <v>2.15</v>
       </c>
       <c r="M96">
-        <v>4.9919999999999999E-3</v>
+        <v>2.3289999999999999E-3</v>
       </c>
       <c r="N96" t="s">
         <v>33</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="B97" t="s">
         <v>388</v>
@@ -5680,320 +5729,229 @@
         <v>31</v>
       </c>
       <c r="E97">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G97">
-        <v>48.179349999999999</v>
+        <v>46.816667000000002</v>
       </c>
       <c r="H97">
-        <v>16.326241</v>
+        <v>-71.216667000000001</v>
       </c>
       <c r="I97">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="J97" t="s">
         <v>390</v>
       </c>
       <c r="K97" t="s">
+        <v>53</v>
+      </c>
+      <c r="L97">
+        <v>0.53190199999999999</v>
+      </c>
+      <c r="M97">
+        <v>1.1739999999999999E-3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>33</v>
+      </c>
+      <c r="P97" t="s">
+        <v>301</v>
+      </c>
+      <c r="U97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1267</v>
+      </c>
+      <c r="B98" t="s">
         <v>391</v>
       </c>
-      <c r="L97">
-        <v>1.889</v>
-      </c>
-      <c r="M97">
-        <v>4.5630000000000002E-3</v>
-      </c>
-      <c r="N97" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" t="s">
-        <v>309</v>
-      </c>
-      <c r="X97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
-      <c r="A98">
-        <v>1262</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>392</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>393</v>
       </c>
-      <c r="D98" t="s">
-        <v>114</v>
-      </c>
       <c r="E98">
-        <v>2018</v>
-      </c>
-      <c r="G98">
-        <v>38.627222000000003</v>
-      </c>
-      <c r="H98">
-        <v>-90.197778</v>
-      </c>
-      <c r="I98">
-        <v>142</v>
-      </c>
-      <c r="J98" t="s">
-        <v>394</v>
+        <v>2017</v>
       </c>
       <c r="K98" t="s">
         <v>37</v>
       </c>
-      <c r="L98">
-        <v>2.15</v>
-      </c>
-      <c r="M98">
-        <v>2.3289999999999999E-3</v>
-      </c>
       <c r="N98" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P98" t="s">
+        <v>301</v>
+      </c>
+      <c r="U98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1269</v>
+      </c>
+      <c r="B99" t="s">
+        <v>394</v>
+      </c>
+      <c r="C99" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
-      <c r="A99">
-        <v>1265</v>
-      </c>
-      <c r="B99" t="s">
-        <v>396</v>
-      </c>
-      <c r="C99" t="s">
-        <v>397</v>
-      </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
       <c r="G99">
-        <v>46.816667000000002</v>
+        <v>41.665556000000002</v>
       </c>
       <c r="H99">
-        <v>-71.216667000000001</v>
+        <v>-83.575277999999997</v>
       </c>
       <c r="I99">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="J99" t="s">
+        <v>396</v>
+      </c>
+      <c r="K99" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99">
+        <v>0.28720800000000002</v>
+      </c>
+      <c r="M99">
+        <v>3.4139999999999999E-3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>40</v>
+      </c>
+      <c r="P99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1273</v>
+      </c>
+      <c r="B100" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" t="s">
         <v>398</v>
       </c>
-      <c r="K99" t="s">
-        <v>53</v>
-      </c>
-      <c r="L99">
-        <v>0.53190199999999999</v>
-      </c>
-      <c r="M99">
-        <v>1.1739999999999999E-3</v>
-      </c>
-      <c r="N99" t="s">
-        <v>33</v>
-      </c>
-      <c r="P99" t="s">
-        <v>309</v>
-      </c>
-      <c r="U99">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
-      <c r="A100">
-        <v>1267</v>
-      </c>
-      <c r="B100" t="s">
-        <v>399</v>
-      </c>
-      <c r="C100" t="s">
-        <v>400</v>
-      </c>
       <c r="D100" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="E100">
         <v>2017</v>
       </c>
       <c r="K100" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="N100" t="s">
-        <v>40</v>
+        <v>154</v>
+      </c>
+      <c r="O100" t="s">
+        <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>309</v>
-      </c>
-      <c r="U100">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D101" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="E101">
         <v>2017</v>
       </c>
       <c r="G101">
-        <v>41.665556000000002</v>
+        <v>-33.865000000000002</v>
       </c>
       <c r="H101">
-        <v>-83.575277999999997</v>
-      </c>
-      <c r="I101">
-        <v>187</v>
+        <v>151.20944399999999</v>
       </c>
       <c r="J101" t="s">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="K101" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="L101">
-        <v>0.28720800000000002</v>
+        <v>5.1310000000000002</v>
       </c>
       <c r="M101">
-        <v>3.4139999999999999E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="N101" t="s">
         <v>40</v>
       </c>
       <c r="P101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+        <v>275</v>
+      </c>
+      <c r="U101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="E102">
-        <v>2017</v>
+        <v>2010</v>
+      </c>
+      <c r="G102">
+        <v>44.647778000000002</v>
+      </c>
+      <c r="H102">
+        <v>-63.571389000000003</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>403</v>
       </c>
       <c r="K102" t="s">
-        <v>134</v>
+        <v>53</v>
+      </c>
+      <c r="L102">
+        <v>0.31670100000000001</v>
+      </c>
+      <c r="M102">
+        <v>1.353E-3</v>
       </c>
       <c r="N102" t="s">
-        <v>162</v>
-      </c>
-      <c r="O102" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="P102" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
-      <c r="A103">
-        <v>1274</v>
-      </c>
-      <c r="B103" t="s">
-        <v>407</v>
-      </c>
-      <c r="C103" t="s">
-        <v>408</v>
-      </c>
-      <c r="D103" t="s">
-        <v>31</v>
-      </c>
-      <c r="E103">
-        <v>2017</v>
-      </c>
-      <c r="G103">
-        <v>-33.865000000000002</v>
-      </c>
-      <c r="H103">
-        <v>151.20944399999999</v>
-      </c>
-      <c r="J103" t="s">
-        <v>240</v>
-      </c>
-      <c r="K103" t="s">
-        <v>105</v>
-      </c>
-      <c r="L103">
-        <v>5.1310000000000002</v>
-      </c>
-      <c r="M103">
-        <v>4.15E-3</v>
-      </c>
-      <c r="N103" t="s">
-        <v>40</v>
-      </c>
-      <c r="P103" t="s">
-        <v>283</v>
-      </c>
-      <c r="U103">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
-      <c r="A104">
-        <v>1285</v>
-      </c>
-      <c r="B104" t="s">
-        <v>409</v>
-      </c>
-      <c r="C104" t="s">
-        <v>410</v>
-      </c>
-      <c r="D104" t="s">
-        <v>286</v>
-      </c>
-      <c r="E104">
-        <v>2010</v>
-      </c>
-      <c r="G104">
-        <v>44.647778000000002</v>
-      </c>
-      <c r="H104">
-        <v>-63.571389000000003</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>411</v>
-      </c>
-      <c r="K104" t="s">
-        <v>53</v>
-      </c>
-      <c r="L104">
-        <v>0.31670100000000001</v>
-      </c>
-      <c r="M104">
-        <v>1.353E-3</v>
-      </c>
-      <c r="N104" t="s">
-        <v>28</v>
-      </c>
-      <c r="P104" t="s">
-        <v>283</v>
-      </c>
-      <c r="U104">
+        <v>275</v>
+      </c>
+      <c r="U102">
         <v>5</v>
       </c>
     </row>
@@ -6003,24 +5961,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -16,13 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="410">
   <si>
     <t>id</t>
   </si>
@@ -591,9 +590,6 @@
     <t>Pavao-Zuckerman, Mitchell A.; Sookhdeo, Christine</t>
   </si>
   <si>
-    <t>Tucson</t>
-  </si>
-  <si>
     <t>nematode abundance</t>
   </si>
   <si>
@@ -738,10 +734,6 @@
     <t>species composition</t>
   </si>
   <si>
-    <t>The contribution of motorway stormwater retention ponds to the_x000D_
-biodiversity of aquatic macroinvertebrates</t>
-  </si>
-  <si>
     <t>Le Viol, Isabelle; Mocq, Julien; Julliard, Romain; Kerbiriou, Christian</t>
   </si>
   <si>
@@ -754,10 +746,6 @@
     <t>water quality</t>
   </si>
   <si>
-    <t>Streetscape biodiversity and the role of bioretention swales in an_x000D_
-Australian urban environment</t>
-  </si>
-  <si>
     <t>Kazemi, Fatemeh; Beecham, Simon; Gibbs, Joan</t>
   </si>
   <si>
@@ -785,10 +773,6 @@
     <t>survival</t>
   </si>
   <si>
-    <t>Streetscale bioretention basins in Melbourne and their effect on local_x000D_
-biodiversity</t>
-  </si>
-  <si>
     <t>More amphibians than expected in highway stormwater ponds</t>
   </si>
   <si>
@@ -801,40 +785,24 @@
     <t>amphibian composition</t>
   </si>
   <si>
-    <t>Macrophyte zonation in stormwater wetlands: getting it right! A case_x000D_
-study from subtropical Australia</t>
-  </si>
-  <si>
     <t>Greenway, M.; Jenkins, G.; Polson, C.</t>
   </si>
   <si>
     <t>WATER SCIENCE AND TECHNOLOGY</t>
   </si>
   <si>
-    <t>Colonization of a newly constructed urban wetland by mosquitoes in_x000D_
-England: implications for nuisance and vector species</t>
-  </si>
-  <si>
     <t>Medlock, Jolyon M.; Vaux, Alexander G. C.</t>
   </si>
   <si>
     <t>JOURNAL OF VECTOR ECOLOGY</t>
   </si>
   <si>
-    <t>Sustainable drainage system (SuDS) ponds in Inverness, UK and the_x000D_
-favourable conservation status of amphibians</t>
-  </si>
-  <si>
     <t>O'Brien, C. David</t>
   </si>
   <si>
     <t>Scotland</t>
   </si>
   <si>
-    <t>Exploring green infrastructure benefits at house and neighborhood scale:_x000D_
-case study of Illinois, USA</t>
-  </si>
-  <si>
     <t>Kim, Jinki</t>
   </si>
   <si>
@@ -1247,6 +1215,42 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>Tuscon</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>The contribution of motorway stormwater retention ponds to the biodiversity of aquatic macroinvertebrates</t>
+  </si>
+  <si>
+    <t>Streetscape biodiversity and the role of bioretention swales in an Australian urban environment</t>
+  </si>
+  <si>
+    <t>Streetscale bioretention basins in Melbourne and their effect on local biodiversity</t>
+  </si>
+  <si>
+    <t>Macrophyte zonation in stormwater wetlands: getting it right! A case study from subtropical Australia</t>
+  </si>
+  <si>
+    <t>Colonization of a newly constructed urban wetland by mosquitoes in England: implications for nuisance and vector species</t>
+  </si>
+  <si>
+    <t>Sustainable drainage system (SuDS) ponds in Inverness, UK and the favourable conservation status of amphibians</t>
+  </si>
+  <si>
+    <t>Exploring green infrastructure benefits at house and neighborhood scale: case study of Illinois, USA</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
   </si>
 </sst>
 </file>
@@ -1591,15 +1595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,64 +1620,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1690,25 +1697,25 @@
         <v>2014</v>
       </c>
       <c r="F2" t="s">
-        <v>404</v>
-      </c>
-      <c r="K2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1725,43 +1732,43 @@
         <v>2012</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G3">
+        <v>396</v>
+      </c>
+      <c r="H3">
         <v>42.281388999999997</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-83.748333000000002</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>256</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.11393399999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.5820000000000001E-3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>38</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1778,34 +1785,34 @@
         <v>2011</v>
       </c>
       <c r="F4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G4">
+        <v>396</v>
+      </c>
+      <c r="H4">
         <v>19.166667</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-101.9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1920</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.78477600000000003</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1822,37 +1829,37 @@
         <v>2013</v>
       </c>
       <c r="F5" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5">
+        <v>396</v>
+      </c>
+      <c r="H5">
         <v>43.7</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-79.400000000000006</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>53</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5.1327939999999996</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.931E-3</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -1868,44 +1875,47 @@
       <c r="E6">
         <v>2015</v>
       </c>
-      <c r="G6">
+      <c r="F6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6">
         <v>37.270833000000003</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-79.941666999999995</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>269</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.31233100000000003</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.8389999999999999E-3</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>59</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>60</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -1921,38 +1931,38 @@
       <c r="E7">
         <v>2014</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>39.1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-84.516666999999998</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>147</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.30130099999999999</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.4630000000000001E-3</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -1971,38 +1981,38 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>38.713889000000002</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9.1394439999999992</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.8</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.1429E-2</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2021,38 +2031,38 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>22.3964</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>114.1095</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>77</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>7.15</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.954E-2</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>33</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>30</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2069,34 +2079,34 @@
         <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
-      </c>
-      <c r="G10">
+        <v>396</v>
+      </c>
+      <c r="H10">
         <v>52.516666999999998</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13.388889000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>78</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>79</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3.7109999999999999</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>40</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2113,37 +2123,37 @@
         <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11">
+        <v>396</v>
+      </c>
+      <c r="H11">
         <v>43.7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-79.400000000000006</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>76</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>53</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5.1327939999999996</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.931E-3</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2160,40 +2170,40 @@
         <v>2016</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12">
+        <v>396</v>
+      </c>
+      <c r="H12">
         <v>60.170833000000002</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>24.9375</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>17</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>92</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.231595</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.833E-3</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>28</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>54</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2210,37 +2220,37 @@
         <v>2014</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13">
+        <v>396</v>
+      </c>
+      <c r="H13">
         <v>59.329444000000002</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18.068611000000001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>41</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.538</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4.3070000000000001E-3</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>33</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2256,20 +2266,23 @@
       <c r="E14">
         <v>2008</v>
       </c>
-      <c r="K14" t="s">
+      <c r="F14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" t="s">
         <v>37</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>100</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2286,43 +2299,43 @@
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>404</v>
-      </c>
-      <c r="G15">
+        <v>396</v>
+      </c>
+      <c r="H15">
         <v>-37.813609999999997</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>144.96305599999999</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>104</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>105</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>106</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>30</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2339,37 +2352,37 @@
         <v>2016</v>
       </c>
       <c r="F16" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16">
+        <v>396</v>
+      </c>
+      <c r="H16">
         <v>39.1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-84.511167</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>147</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>110</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>111</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.29599999999999999</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.4369999999999999E-3</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>28</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2386,37 +2399,37 @@
         <v>2015</v>
       </c>
       <c r="F17" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17">
+        <v>396</v>
+      </c>
+      <c r="H17">
         <v>39.916666999999997</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>116.38333299999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>43</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>115</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>77</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>21.25</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5.1279999999999997E-3</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>33</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2433,40 +2446,40 @@
         <v>2016</v>
       </c>
       <c r="F18" t="s">
-        <v>404</v>
-      </c>
-      <c r="G18">
+        <v>396</v>
+      </c>
+      <c r="H18">
         <v>22.3964</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>114.1095</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>76</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>77</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7.15</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.954E-2</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>28</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>119</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2483,37 +2496,37 @@
         <v>2016</v>
       </c>
       <c r="F19" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19">
+        <v>396</v>
+      </c>
+      <c r="H19">
         <v>43.886944</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>125.32472199999999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>222</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>123</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>77</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3.75</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4.5180000000000003E-3</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>47</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2532,20 +2545,20 @@
       <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>105</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>126</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>30</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2562,40 +2575,40 @@
         <v>2017</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21">
+        <v>396</v>
+      </c>
+      <c r="H21">
         <v>52.4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>16.916667</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>60</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>129</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>130</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4.215E-3</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>40</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>30</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2612,22 +2625,22 @@
         <v>2017</v>
       </c>
       <c r="F22" t="s">
-        <v>404</v>
-      </c>
-      <c r="K22" t="s">
+        <v>396</v>
+      </c>
+      <c r="L22" t="s">
         <v>79</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>40</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>134</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2644,40 +2657,40 @@
         <v>2016</v>
       </c>
       <c r="F23" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23">
+        <v>396</v>
+      </c>
+      <c r="H23">
         <v>43.7</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-79.400000000000006</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>76</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>52</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>53</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5.1327939999999996</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2.931E-3</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>28</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>38</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2696,35 +2709,35 @@
       <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>51.507221999999999</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.1275</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>35</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>140</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>141</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9.7870000000000008</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>5.6369999999999996E-3</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>28</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2741,22 +2754,22 @@
         <v>2016</v>
       </c>
       <c r="F25" t="s">
-        <v>404</v>
-      </c>
-      <c r="K25" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" t="s">
         <v>32</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>33</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>30</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>434</v>
       </c>
@@ -2775,35 +2788,35 @@
       <c r="F26" t="s">
         <v>26</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>22.3964</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>114.1095</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>77</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>7.15</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.954E-2</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>33</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>454</v>
       </c>
@@ -2820,37 +2833,37 @@
         <v>2017</v>
       </c>
       <c r="F27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G27">
+        <v>396</v>
+      </c>
+      <c r="H27">
         <v>40.383333</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-3.7166670000000002</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>667</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>152</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>153</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3.141</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>154</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>463</v>
       </c>
@@ -2867,37 +2880,37 @@
         <v>2017</v>
       </c>
       <c r="F28" t="s">
-        <v>404</v>
-      </c>
-      <c r="G28">
+        <v>396</v>
+      </c>
+      <c r="H28">
         <v>18.406389000000001</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-66.063889000000003</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>26</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>157</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>37</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.35</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.6830000000000001E-3</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>33</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>464</v>
       </c>
@@ -2914,37 +2927,37 @@
         <v>2017</v>
       </c>
       <c r="F29" t="s">
-        <v>404</v>
-      </c>
-      <c r="G29">
+        <v>396</v>
+      </c>
+      <c r="H29">
         <v>43.7</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-79.400000000000006</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>76</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>52</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>53</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>5.1327939999999996</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.931E-3</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>28</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>465</v>
       </c>
@@ -2960,14 +2973,17 @@
       <c r="E30">
         <v>2017</v>
       </c>
-      <c r="N30" t="s">
+      <c r="F30" t="s">
+        <v>396</v>
+      </c>
+      <c r="O30" t="s">
         <v>33</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>466</v>
       </c>
@@ -2983,38 +2999,44 @@
       <c r="E31">
         <v>2017</v>
       </c>
-      <c r="G31">
+      <c r="F31" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31">
         <v>22.3964</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>114.1095</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>76</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>77</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>7.15</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2.954E-2</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>28</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>119</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3030,32 +3052,35 @@
       <c r="E32">
         <v>2015</v>
       </c>
-      <c r="G32">
+      <c r="F32" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32">
         <v>51.333329999999997</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12.383330000000001</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>169</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>79</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.57108800000000004</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.923E-3</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>47</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3071,35 +3096,38 @@
       <c r="E33">
         <v>2011</v>
       </c>
-      <c r="G33">
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33">
         <v>-6.2</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>106.816667</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>172</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>173</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>10.074999999999999</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.5242E-2</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>154</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3115,17 +3143,23 @@
       <c r="E34">
         <v>2018</v>
       </c>
-      <c r="K34" t="s">
+      <c r="F34" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
         <v>176</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>28</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3141,41 +3175,44 @@
       <c r="E35">
         <v>2018</v>
       </c>
-      <c r="G35">
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35">
         <v>41.482222</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-81.669721999999993</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>199</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>180</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>37</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.396698</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>4.8380000000000003E-3</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>47</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>30</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>181</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3191,44 +3228,47 @@
       <c r="E36">
         <v>2017</v>
       </c>
-      <c r="G36">
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36">
         <v>53.479439999999997</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-2.2452779999999999</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>125</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>185</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>141</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2.5529999999999999</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.056E-2</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>40</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>186</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>73</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>181</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3244,40 +3284,43 @@
       <c r="E37">
         <v>2017</v>
       </c>
-      <c r="G37">
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
         <v>32.221666999999997</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-110.926389</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>399</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>0.52011600000000002</v>
+      </c>
+      <c r="N37">
+        <v>2.2039999999999998E-3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q37" t="s">
         <v>189</v>
       </c>
-      <c r="K37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L37">
-        <v>0.52011600000000002</v>
-      </c>
-      <c r="M37">
-        <v>2.2039999999999998E-3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>154</v>
-      </c>
-      <c r="P37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>563</v>
       </c>
       <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
         <v>191</v>
-      </c>
-      <c r="C38" t="s">
-        <v>192</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
@@ -3285,43 +3328,46 @@
       <c r="E38">
         <v>2017</v>
       </c>
-      <c r="G38">
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38">
         <v>40.712777799999998</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-74.005832999999996</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>10</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>192</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="N38">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
         <v>193</v>
       </c>
-      <c r="K38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38">
-        <v>8.6219999999999999</v>
-      </c>
-      <c r="M38">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>593</v>
       </c>
       <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
         <v>195</v>
-      </c>
-      <c r="C39" t="s">
-        <v>196</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
@@ -3329,37 +3375,40 @@
       <c r="E39">
         <v>2014</v>
       </c>
-      <c r="G39">
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39">
         <v>35.166670000000003</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>129.06666999999999</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" t="s">
         <v>197</v>
       </c>
-      <c r="K39" t="s">
-        <v>198</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>40</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>186</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>621</v>
       </c>
       <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
         <v>199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -3367,37 +3416,40 @@
       <c r="E40">
         <v>2018</v>
       </c>
-      <c r="G40">
+      <c r="F40" t="s">
+        <v>396</v>
+      </c>
+      <c r="H40">
         <v>43.716667000000001</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>10.4</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>10</v>
       </c>
-      <c r="J40" t="s">
-        <v>201</v>
-      </c>
       <c r="K40" t="s">
+        <v>200</v>
+      </c>
+      <c r="L40" t="s">
         <v>39</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>28</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>640</v>
       </c>
       <c r="B41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" t="s">
         <v>202</v>
-      </c>
-      <c r="C41" t="s">
-        <v>203</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
@@ -3405,43 +3457,46 @@
       <c r="E41">
         <v>2018</v>
       </c>
-      <c r="G41">
+      <c r="F41" t="s">
+        <v>400</v>
+      </c>
+      <c r="H41">
         <v>50.083333000000003</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>14.416667</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>177</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+      <c r="L41" t="s">
         <v>204</v>
       </c>
-      <c r="K41" t="s">
-        <v>205</v>
-      </c>
-      <c r="L41">
+      <c r="M41">
         <v>1.294</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>2.6090000000000002E-3</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>40</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>641</v>
       </c>
       <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="s">
         <v>206</v>
-      </c>
-      <c r="C42" t="s">
-        <v>207</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -3449,43 +3504,46 @@
       <c r="E42">
         <v>2018</v>
       </c>
-      <c r="G42">
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42">
         <v>25.066666999999999</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>121.516667</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" t="s">
         <v>208</v>
       </c>
-      <c r="K42" t="s">
-        <v>209</v>
-      </c>
-      <c r="L42">
+      <c r="M42">
         <v>8.5</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>7.456E-3</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>40</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>186</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>659</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
         <v>117</v>
@@ -3496,43 +3554,46 @@
       <c r="E43">
         <v>2018</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
         <v>22.3964</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>114.1095</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>76</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>77</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>7.15</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2.954E-2</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>28</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>119</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>670</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
         <v>125</v>
@@ -3543,25 +3604,28 @@
       <c r="E44">
         <v>2018</v>
       </c>
-      <c r="K44" t="s">
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
         <v>105</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>126</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>679</v>
       </c>
       <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
         <v>212</v>
-      </c>
-      <c r="C45" t="s">
-        <v>213</v>
       </c>
       <c r="D45" t="s">
         <v>57</v>
@@ -3569,90 +3633,96 @@
       <c r="E45">
         <v>2018</v>
       </c>
-      <c r="G45">
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
         <v>47.566659999999999</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>7.6</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>254</v>
       </c>
-      <c r="J45" t="s">
-        <v>214</v>
-      </c>
       <c r="K45" t="s">
+        <v>213</v>
+      </c>
+      <c r="L45" t="s">
         <v>176</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.17594000000000001</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>7.5030000000000001E-3</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>28</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>177</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>697</v>
       </c>
       <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
         <v>215</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>216</v>
-      </c>
-      <c r="D46" t="s">
-        <v>217</v>
       </c>
       <c r="E46">
         <v>2017</v>
       </c>
-      <c r="G46">
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="H46">
         <v>51.507221999999999</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-0.1275</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>35</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>140</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>141</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>9.7870000000000008</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>5.6369999999999996E-3</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>40</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>728</v>
       </c>
       <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
         <v>218</v>
-      </c>
-      <c r="C47" t="s">
-        <v>219</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
@@ -3660,221 +3730,239 @@
       <c r="E47">
         <v>2017</v>
       </c>
-      <c r="K47" t="s">
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
         <v>32</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>47</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>760</v>
       </c>
       <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
         <v>220</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>221</v>
-      </c>
-      <c r="D48" t="s">
-        <v>222</v>
       </c>
       <c r="E48">
         <v>2017</v>
       </c>
-      <c r="G48">
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48">
         <v>13.511666999999999</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2.1252779999999998</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>207</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
+        <v>222</v>
+      </c>
+      <c r="L48" t="s">
         <v>223</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="N48">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q48" t="s">
         <v>224</v>
       </c>
-      <c r="L48">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="M48">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>47</v>
-      </c>
-      <c r="P48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>777</v>
       </c>
       <c r="B49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" t="s">
         <v>226</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" t="s">
-        <v>228</v>
       </c>
       <c r="E49">
         <v>2017</v>
       </c>
-      <c r="G49">
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49">
         <v>59.329444000000002</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>18.068611000000001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>96</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>41</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>1.538</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>4.3070000000000001E-3</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>154</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>787</v>
       </c>
       <c r="B50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" t="s">
         <v>229</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>230</v>
-      </c>
-      <c r="D50" t="s">
-        <v>231</v>
       </c>
       <c r="E50">
         <v>2017</v>
       </c>
-      <c r="G50">
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50">
         <v>-33.865000000000002</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>151.20944399999999</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
+        <v>231</v>
+      </c>
+      <c r="L50" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50">
+        <v>5.1310000000000002</v>
+      </c>
+      <c r="N50">
+        <v>4.15E-3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>30</v>
+      </c>
+      <c r="T50" t="s">
         <v>232</v>
       </c>
-      <c r="K50" t="s">
-        <v>105</v>
-      </c>
-      <c r="L50">
-        <v>5.1310000000000002</v>
-      </c>
-      <c r="M50">
-        <v>4.15E-3</v>
-      </c>
-      <c r="N50" t="s">
-        <v>47</v>
-      </c>
-      <c r="P50" t="s">
-        <v>30</v>
-      </c>
-      <c r="S50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>800</v>
       </c>
       <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s">
         <v>234</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>235</v>
-      </c>
-      <c r="D51" t="s">
-        <v>236</v>
       </c>
       <c r="E51">
         <v>2016</v>
       </c>
-      <c r="N51" t="s">
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="O51" t="s">
         <v>28</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>30</v>
       </c>
-      <c r="Q51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="240" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>877</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
         <v>238</v>
-      </c>
-      <c r="C52" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" t="s">
-        <v>240</v>
       </c>
       <c r="E52">
         <v>2008</v>
       </c>
-      <c r="G52">
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
         <v>48.487499999999997</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1.6583300000000001</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>27</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>149</v>
       </c>
-      <c r="P52" t="s">
-        <v>241</v>
-      </c>
-      <c r="S52" t="s">
-        <v>242</v>
-      </c>
-      <c r="U52">
+      <c r="Q52" t="s">
+        <v>239</v>
+      </c>
+      <c r="T52" t="s">
+        <v>240</v>
+      </c>
+      <c r="V52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>879</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>243</v>
+      <c r="B53" t="s">
+        <v>402</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
@@ -3882,46 +3970,49 @@
       <c r="E53">
         <v>2004</v>
       </c>
-      <c r="G53">
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53">
         <v>-37.813609999999997</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>144.96305599999999</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>31</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>104</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>105</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>149</v>
       </c>
-      <c r="O53" t="s">
-        <v>245</v>
-      </c>
       <c r="P53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>881</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -3929,46 +4020,49 @@
       <c r="E54">
         <v>2009</v>
       </c>
-      <c r="G54">
+      <c r="F54" t="s">
+        <v>400</v>
+      </c>
+      <c r="H54">
         <v>52.483055999999998</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>-1.8936109999999999</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>140</v>
       </c>
-      <c r="J54" t="s">
-        <v>248</v>
-      </c>
       <c r="K54" t="s">
+        <v>245</v>
+      </c>
+      <c r="L54" t="s">
         <v>141</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>2.44</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1.0529999999999999E-2</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>28</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>30</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>895</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
         <v>118</v>
@@ -3976,43 +4070,49 @@
       <c r="E55">
         <v>2014</v>
       </c>
-      <c r="G55">
+      <c r="F55" t="s">
+        <v>400</v>
+      </c>
+      <c r="H55">
         <v>-34.928888999999998</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>138.601111</v>
       </c>
-      <c r="J55" t="s">
-        <v>251</v>
-      </c>
       <c r="K55" t="s">
+        <v>248</v>
+      </c>
+      <c r="L55" t="s">
         <v>105</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>1.3339000000000001</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>4.08E-4</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>28</v>
       </c>
-      <c r="P55" t="s">
-        <v>252</v>
-      </c>
-      <c r="U55">
+      <c r="Q55" t="s">
+        <v>249</v>
+      </c>
+      <c r="V55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+      <c r="X55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>899</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>253</v>
+      <c r="B56" t="s">
+        <v>403</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
         <v>90</v>
@@ -4020,46 +4120,49 @@
       <c r="E56">
         <v>2015</v>
       </c>
-      <c r="G56">
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="H56">
         <v>-37.813609999999997</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>144.96305599999999</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>31</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>104</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>105</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>149</v>
       </c>
-      <c r="O56" t="s">
-        <v>245</v>
-      </c>
       <c r="P56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>912</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
@@ -4067,89 +4170,119 @@
       <c r="E57">
         <v>2009</v>
       </c>
-      <c r="G57">
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57">
         <v>47</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>27</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>149</v>
       </c>
-      <c r="O57" t="s">
-        <v>256</v>
-      </c>
       <c r="P57" t="s">
-        <v>257</v>
-      </c>
-      <c r="U57">
+        <v>252</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>253</v>
+      </c>
+      <c r="V57">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="225" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>926</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>258</v>
+      <c r="B58" t="s">
+        <v>404</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E58">
         <v>2014</v>
       </c>
-      <c r="N58" t="s">
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>-27.466667000000001</v>
+      </c>
+      <c r="I58">
+        <v>153.033333</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58" t="s">
+        <v>409</v>
+      </c>
+      <c r="L58" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58">
+        <v>2.4082330000000001</v>
+      </c>
+      <c r="N58">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O58" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="240" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>949</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>261</v>
+        <v>405</v>
       </c>
       <c r="C59" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E59">
         <v>2014</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>51.133000000000003</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-1.95</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>126</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>120</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="240" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>976</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>264</v>
+      <c r="B60" t="s">
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
@@ -4157,28 +4290,28 @@
       <c r="E60">
         <v>2014</v>
       </c>
-      <c r="K60" t="s">
-        <v>266</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="L60" t="s">
+        <v>259</v>
+      </c>
+      <c r="O60" t="s">
         <v>149</v>
       </c>
-      <c r="P60" t="s">
-        <v>257</v>
-      </c>
-      <c r="U60">
+      <c r="Q60" t="s">
+        <v>253</v>
+      </c>
+      <c r="V60">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1023</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>267</v>
+      <c r="B61" t="s">
+        <v>407</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
         <v>144</v>
@@ -4186,357 +4319,357 @@
       <c r="E61">
         <v>2018</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>41.836944000000003</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>-87.684721999999994</v>
       </c>
-      <c r="J61" t="s">
-        <v>269</v>
-      </c>
       <c r="K61" t="s">
+        <v>261</v>
+      </c>
+      <c r="L61" t="s">
         <v>37</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>2.6949999999999998</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>1.157E-2</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>33</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1046</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E62">
         <v>2008</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>52.235159000000003</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0.951905</v>
       </c>
-      <c r="J62" t="s">
-        <v>273</v>
-      </c>
       <c r="K62" t="s">
-        <v>274</v>
-      </c>
-      <c r="L62">
+        <v>265</v>
+      </c>
+      <c r="L62" t="s">
+        <v>266</v>
+      </c>
+      <c r="M62">
         <v>1.72E-3</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>149</v>
       </c>
-      <c r="P62" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1047</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E63">
         <v>2011</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>39.823430000000002</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-74.539400000000001</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>37</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>149</v>
       </c>
-      <c r="P63" t="s">
-        <v>279</v>
-      </c>
-      <c r="S63" t="s">
+      <c r="Q63" t="s">
+        <v>271</v>
+      </c>
+      <c r="T63" t="s">
         <v>137</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E64">
         <v>2010</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>39.283332999999999</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>-76.616659999999996</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>283</v>
-      </c>
       <c r="K64" t="s">
+        <v>275</v>
+      </c>
+      <c r="L64" t="s">
         <v>37</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>0.62</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>6.7390000000000002E-3</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>149</v>
       </c>
-      <c r="O64" t="s">
-        <v>284</v>
-      </c>
       <c r="P64" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1050</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D65" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E65">
         <v>2014</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>39.283332999999999</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-76.616659999999996</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>283</v>
-      </c>
       <c r="K65" t="s">
+        <v>275</v>
+      </c>
+      <c r="L65" t="s">
         <v>37</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.62</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>6.7390000000000002E-3</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>149</v>
       </c>
-      <c r="P65" t="s">
-        <v>257</v>
-      </c>
-      <c r="S65" t="s">
-        <v>288</v>
-      </c>
-      <c r="U65">
+      <c r="Q65" t="s">
+        <v>253</v>
+      </c>
+      <c r="T65" t="s">
+        <v>280</v>
+      </c>
+      <c r="V65">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1051</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D66" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E66">
         <v>2013</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>53.533332999999999</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>-113.5</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>645</v>
       </c>
-      <c r="J66" t="s">
-        <v>292</v>
-      </c>
       <c r="K66" t="s">
-        <v>293</v>
-      </c>
-      <c r="L66">
+        <v>284</v>
+      </c>
+      <c r="L66" t="s">
+        <v>285</v>
+      </c>
+      <c r="M66">
         <v>1.0620000000000001</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1.8569999999999999E-3</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>149</v>
       </c>
-      <c r="O66" t="s">
-        <v>294</v>
-      </c>
       <c r="P66" t="s">
-        <v>257</v>
-      </c>
-      <c r="S66" t="s">
-        <v>288</v>
-      </c>
-      <c r="U66">
+        <v>286</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>253</v>
+      </c>
+      <c r="T66" t="s">
+        <v>280</v>
+      </c>
+      <c r="V66">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1052</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D67" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E67">
         <v>2006</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>47.566667000000002</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>7.6</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>254</v>
       </c>
-      <c r="J67" t="s">
-        <v>214</v>
-      </c>
       <c r="K67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L67" t="s">
         <v>176</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.17594000000000001</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>7.3769999999999999E-3</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>28</v>
       </c>
-      <c r="P67" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1055</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D68" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E68">
         <v>2008</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>40.712777799999998</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>-74.005832999999996</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>10</v>
       </c>
-      <c r="J68" t="s">
-        <v>193</v>
-      </c>
       <c r="K68" t="s">
+        <v>192</v>
+      </c>
+      <c r="L68" t="s">
         <v>37</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>8.6219999999999999</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>40</v>
       </c>
-      <c r="P68" t="s">
-        <v>301</v>
-      </c>
-      <c r="U68">
+      <c r="Q68" t="s">
+        <v>293</v>
+      </c>
+      <c r="V68">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1056</v>
       </c>
       <c r="B69" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D69" t="s">
         <v>109</v>
@@ -4544,43 +4677,43 @@
       <c r="E69">
         <v>2007</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>59.329444000000002</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>18.068611000000001</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>96</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>41</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>1.538</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>4.3070000000000001E-3</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>40</v>
       </c>
-      <c r="P69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1059</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
         <v>103</v>
@@ -4588,122 +4721,122 @@
       <c r="E70">
         <v>2008</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>141</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>33</v>
       </c>
-      <c r="O70" t="s">
-        <v>306</v>
-      </c>
       <c r="P70" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1062</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E71">
         <v>2011</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>52.483055999999998</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-1.8936109999999999</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>140</v>
       </c>
-      <c r="J71" t="s">
-        <v>248</v>
-      </c>
       <c r="K71" t="s">
+        <v>245</v>
+      </c>
+      <c r="L71" t="s">
         <v>141</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>2.44</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>1.0529999999999999E-2</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>40</v>
       </c>
-      <c r="O71" t="s">
-        <v>306</v>
-      </c>
       <c r="P71" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1063</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E72">
         <v>2009</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>59.329444000000002</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>18.068611000000001</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>96</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>41</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>1.538</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>4.3070000000000001E-3</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>40</v>
       </c>
-      <c r="O72" t="s">
-        <v>306</v>
-      </c>
       <c r="P72" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1067</v>
       </c>
       <c r="B73" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -4711,404 +4844,404 @@
       <c r="E73">
         <v>1999</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>52.204999999999998</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>6</v>
       </c>
-      <c r="J73" t="s">
-        <v>314</v>
-      </c>
       <c r="K73" t="s">
+        <v>306</v>
+      </c>
+      <c r="L73" t="s">
         <v>141</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>40</v>
       </c>
-      <c r="P73" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1069</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D74" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>52.4</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>16.916667</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>60</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>129</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>130</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>4.215E-3</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>40</v>
       </c>
-      <c r="P74" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1070</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E75">
         <v>2008</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>40.712777799999998</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-74.005832999999996</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>10</v>
       </c>
-      <c r="J75" t="s">
-        <v>193</v>
-      </c>
       <c r="K75" t="s">
+        <v>192</v>
+      </c>
+      <c r="L75" t="s">
         <v>37</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>8.6219999999999999</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>33</v>
       </c>
-      <c r="P75" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1076</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E76">
         <v>2014</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>48.856699999999996</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>2.3508</v>
       </c>
-      <c r="J76" t="s">
-        <v>322</v>
-      </c>
       <c r="K76" t="s">
+        <v>314</v>
+      </c>
+      <c r="L76" t="s">
         <v>27</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>10.601122</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>3.7650000000000001E-3</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>33</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1093</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E77">
         <v>2013</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>40.712777799999998</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>-74.005832999999996</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>10</v>
       </c>
-      <c r="J77" t="s">
-        <v>193</v>
-      </c>
       <c r="K77" t="s">
+        <v>192</v>
+      </c>
+      <c r="L77" t="s">
         <v>37</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>8.6219999999999999</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>40</v>
       </c>
-      <c r="O77" t="s">
-        <v>326</v>
-      </c>
       <c r="P77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1094</v>
       </c>
       <c r="B78" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E78">
         <v>2013</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>48.856699999999996</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>2.3508</v>
       </c>
-      <c r="J78" t="s">
-        <v>322</v>
-      </c>
       <c r="K78" t="s">
+        <v>314</v>
+      </c>
+      <c r="L78" t="s">
         <v>27</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>10.601122</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>3.7650000000000001E-3</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>33</v>
       </c>
-      <c r="O78" t="s">
-        <v>329</v>
-      </c>
       <c r="P78" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1101</v>
       </c>
       <c r="B79" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E79">
         <v>2015</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>-37.813609999999997</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>144.96305599999999</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>31</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>104</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>105</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>40</v>
       </c>
-      <c r="O79" t="s">
-        <v>326</v>
-      </c>
       <c r="P79" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1105</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C80" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E80">
         <v>2014</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>41.836944000000003</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-87.684721999999994</v>
       </c>
-      <c r="J80" t="s">
-        <v>269</v>
-      </c>
       <c r="K80" t="s">
+        <v>261</v>
+      </c>
+      <c r="L80" t="s">
         <v>37</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>2.6949999999999998</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>1.157E-2</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>33</v>
       </c>
-      <c r="P80" t="s">
-        <v>301</v>
-      </c>
-      <c r="S80" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q80" t="s">
+        <v>293</v>
+      </c>
+      <c r="T80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1107</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C81" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D81" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E81">
         <v>2011</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>40.712777799999998</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-74.005832999999996</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>10</v>
       </c>
-      <c r="J81" t="s">
-        <v>193</v>
-      </c>
       <c r="K81" t="s">
+        <v>192</v>
+      </c>
+      <c r="L81" t="s">
         <v>37</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>8.6219999999999999</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>40</v>
       </c>
-      <c r="O81" t="s">
-        <v>326</v>
-      </c>
       <c r="P81" t="s">
-        <v>275</v>
-      </c>
-      <c r="U81">
+        <v>318</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>267</v>
+      </c>
+      <c r="V81">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1114</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D82" t="s">
         <v>31</v>
@@ -5116,46 +5249,46 @@
       <c r="E82">
         <v>2014</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>43.7</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-79.400000000000006</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>76</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>52</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>53</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>5.1327939999999996</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>2.931E-3</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>81</v>
       </c>
-      <c r="P82" t="s">
-        <v>341</v>
-      </c>
-      <c r="U82">
+      <c r="Q82" t="s">
+        <v>333</v>
+      </c>
+      <c r="V82">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1120</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C83" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -5163,90 +5296,90 @@
       <c r="E83">
         <v>2014</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>50.371389000000001</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>-4.1422220000000003</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0</v>
       </c>
-      <c r="J83" t="s">
-        <v>344</v>
-      </c>
       <c r="K83" t="s">
+        <v>336</v>
+      </c>
+      <c r="L83" t="s">
         <v>141</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>0.2631</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>8.8769999999999995E-3</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>33</v>
       </c>
-      <c r="O83" t="s">
-        <v>345</v>
-      </c>
       <c r="P83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1123</v>
       </c>
       <c r="B84" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D84" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E84">
         <v>2015</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>41.836944000000003</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-87.684721999999994</v>
       </c>
-      <c r="J84" t="s">
-        <v>269</v>
-      </c>
       <c r="K84" t="s">
+        <v>261</v>
+      </c>
+      <c r="L84" t="s">
         <v>37</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>2.6949999999999998</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>1.157E-2</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>33</v>
       </c>
-      <c r="P84" t="s">
-        <v>301</v>
-      </c>
-      <c r="U84">
+      <c r="Q84" t="s">
+        <v>293</v>
+      </c>
+      <c r="V84">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1126</v>
       </c>
       <c r="B85" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D85" t="s">
         <v>93</v>
@@ -5254,121 +5387,121 @@
       <c r="E85">
         <v>2016</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>105</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>33</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>100</v>
       </c>
-      <c r="P85" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1127</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>50.802999999999997</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>-4.1099999999999998E-2</v>
       </c>
-      <c r="J86" t="s">
-        <v>353</v>
-      </c>
       <c r="K86" t="s">
+        <v>345</v>
+      </c>
+      <c r="L86" t="s">
         <v>141</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>40</v>
       </c>
-      <c r="P86" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1134</v>
       </c>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>27</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>33</v>
       </c>
-      <c r="O87" t="s">
-        <v>356</v>
-      </c>
       <c r="P87" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1136</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E88">
         <v>2014</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>141</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>33</v>
       </c>
-      <c r="O88" t="s">
-        <v>359</v>
-      </c>
       <c r="P88" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1137</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
         <v>44</v>
@@ -5376,166 +5509,166 @@
       <c r="E89">
         <v>2011</v>
       </c>
-      <c r="K89" t="s">
-        <v>363</v>
-      </c>
-      <c r="N89" t="s">
+      <c r="L89" t="s">
+        <v>355</v>
+      </c>
+      <c r="O89" t="s">
         <v>40</v>
       </c>
-      <c r="P89" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1156</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E90">
         <v>2014</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>57.7</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>11.966666999999999</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>12</v>
       </c>
-      <c r="J90" t="s">
-        <v>366</v>
-      </c>
       <c r="K90" t="s">
+        <v>358</v>
+      </c>
+      <c r="L90" t="s">
         <v>41</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>0.58182199999999995</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>2.8660000000000001E-3</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>40</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>106</v>
       </c>
-      <c r="P90" t="s">
-        <v>301</v>
-      </c>
-      <c r="U90">
+      <c r="Q90" t="s">
+        <v>293</v>
+      </c>
+      <c r="V90">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1167</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E91">
         <v>2016</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>52.516666999999998</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>13.388889000000001</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>34</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>78</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>79</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>3.7109999999999999</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>4.165E-2</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>47</v>
       </c>
-      <c r="O91" t="s">
-        <v>369</v>
-      </c>
       <c r="P91" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1198</v>
       </c>
       <c r="B92" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C92" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E92">
         <v>2017</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>45.5</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>-73.566670000000002</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>6</v>
       </c>
-      <c r="J92" t="s">
-        <v>373</v>
-      </c>
       <c r="K92" t="s">
+        <v>365</v>
+      </c>
+      <c r="L92" t="s">
         <v>53</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>3.5190000000000001</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>2.2780000000000001E-3</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>40</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>106</v>
       </c>
-      <c r="P92" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1201</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C93" t="s">
         <v>71</v>
@@ -5546,93 +5679,93 @@
       <c r="E93">
         <v>2016</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>33.450000000000003</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>-112.06667</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>331</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>72</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>37</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>1.6259999999999999</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>3.1449999999999998E-3</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>33</v>
       </c>
-      <c r="O93" t="s">
-        <v>375</v>
-      </c>
       <c r="P93" t="s">
-        <v>301</v>
-      </c>
-      <c r="U93">
+        <v>367</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>293</v>
+      </c>
+      <c r="V93">
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1223</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E94">
         <v>2018</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>42.101388999999998</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>-72.590277999999998</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>21</v>
       </c>
-      <c r="J94" t="s">
-        <v>378</v>
-      </c>
       <c r="K94" t="s">
+        <v>370</v>
+      </c>
+      <c r="L94" t="s">
         <v>37</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>0.15475800000000001</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>4.9919999999999999E-3</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>33</v>
       </c>
-      <c r="O94" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1255</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -5640,46 +5773,46 @@
       <c r="E95">
         <v>2018</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>48.179349999999999</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>16.326241</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>151</v>
       </c>
-      <c r="J95" t="s">
-        <v>382</v>
-      </c>
       <c r="K95" t="s">
-        <v>383</v>
-      </c>
-      <c r="L95">
+        <v>374</v>
+      </c>
+      <c r="L95" t="s">
+        <v>375</v>
+      </c>
+      <c r="M95">
         <v>1.889</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>4.5630000000000002E-3</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>28</v>
       </c>
-      <c r="P95" t="s">
-        <v>301</v>
-      </c>
-      <c r="X95">
+      <c r="Q95" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y95">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1262</v>
       </c>
       <c r="B96" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C96" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D96" t="s">
         <v>114</v>
@@ -5687,43 +5820,43 @@
       <c r="E96">
         <v>2018</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>38.627222000000003</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>-90.197778</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>142</v>
       </c>
-      <c r="J96" t="s">
-        <v>386</v>
-      </c>
       <c r="K96" t="s">
+        <v>378</v>
+      </c>
+      <c r="L96" t="s">
         <v>37</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>2.15</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>2.3289999999999999E-3</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>33</v>
       </c>
-      <c r="P96" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q96" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1265</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -5731,148 +5864,148 @@
       <c r="E97">
         <v>2017</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>46.816667000000002</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>-71.216667000000001</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>98</v>
       </c>
-      <c r="J97" t="s">
-        <v>390</v>
-      </c>
       <c r="K97" t="s">
+        <v>382</v>
+      </c>
+      <c r="L97" t="s">
         <v>53</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>0.53190199999999999</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>1.1739999999999999E-3</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>33</v>
       </c>
-      <c r="P97" t="s">
-        <v>301</v>
-      </c>
-      <c r="U97">
+      <c r="Q97" t="s">
+        <v>293</v>
+      </c>
+      <c r="V97">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1267</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C98" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D98" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>37</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>40</v>
       </c>
-      <c r="P98" t="s">
-        <v>301</v>
-      </c>
-      <c r="U98">
+      <c r="Q98" t="s">
+        <v>293</v>
+      </c>
+      <c r="V98">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1269</v>
       </c>
       <c r="B99" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C99" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>41.665556000000002</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>-83.575277999999997</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>187</v>
       </c>
-      <c r="J99" t="s">
-        <v>396</v>
-      </c>
       <c r="K99" t="s">
+        <v>388</v>
+      </c>
+      <c r="L99" t="s">
         <v>37</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>0.28720800000000002</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>3.4139999999999999E-3</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>40</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1273</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D100" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E100">
         <v>2017</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>130</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>154</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>100</v>
       </c>
-      <c r="P100" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q100" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1274</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C101" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D101" t="s">
         <v>31</v>
@@ -5880,78 +6013,78 @@
       <c r="E101">
         <v>2017</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>-33.865000000000002</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>151.20944399999999</v>
       </c>
-      <c r="J101" t="s">
-        <v>232</v>
-      </c>
       <c r="K101" t="s">
+        <v>231</v>
+      </c>
+      <c r="L101" t="s">
         <v>105</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>5.1310000000000002</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>4.15E-3</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>40</v>
       </c>
-      <c r="P101" t="s">
-        <v>275</v>
-      </c>
-      <c r="U101">
+      <c r="Q101" t="s">
+        <v>267</v>
+      </c>
+      <c r="V101">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1285</v>
       </c>
       <c r="B102" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E102">
         <v>2010</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>44.647778000000002</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>-63.571389000000003</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>403</v>
-      </c>
       <c r="K102" t="s">
+        <v>395</v>
+      </c>
+      <c r="L102" t="s">
         <v>53</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>0.31670100000000001</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>1.353E-3</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>28</v>
       </c>
-      <c r="P102" t="s">
-        <v>275</v>
-      </c>
-      <c r="U102">
+      <c r="Q102" t="s">
+        <v>267</v>
+      </c>
+      <c r="V102">
         <v>5</v>
       </c>
     </row>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -17,11 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1251,6 +1252,93 @@
   </si>
   <si>
     <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Birds and the urban environment: the value of green walls</t>
+  </si>
+  <si>
+    <t>Chiquet, C., Dover, J.W., &amp; Mitchell, P.</t>
+  </si>
+  <si>
+    <t>bird abundance</t>
+  </si>
+  <si>
+    <t>Newcastle-under-Lyme</t>
+  </si>
+  <si>
+    <t>green walls</t>
+  </si>
+  <si>
+    <t>Ground-Nesting Birds on Green Roofs in Switzerland: Preliminary Observations</t>
+  </si>
+  <si>
+    <t>Baumann, N.</t>
+  </si>
+  <si>
+    <t>Green Roofs – Urban Habitats for Ground-Nesting Birds and Plants</t>
+  </si>
+  <si>
+    <t>Baumann, N. &amp; Kasten, F.</t>
+  </si>
+  <si>
+    <t>Urban Biodiversity and Design</t>
+  </si>
+  <si>
+    <t>bird survival</t>
+  </si>
+  <si>
+    <t>Insect and avian fauna presence on the Ford assembly plant ecoroof</t>
+  </si>
+  <si>
+    <t>Coffman, R. &amp; Davis, G.</t>
+  </si>
+  <si>
+    <t>Third annual greening rooftops for sustainable communities conference, awards and trade show</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Can green roofs provide habitat for urban bees (Hymenoptera: Apidae)?</t>
+  </si>
+  <si>
+    <t>Colla, S., Willis, &amp; Packer, L.</t>
+  </si>
+  <si>
+    <t>Cities and the Environment</t>
+  </si>
+  <si>
+    <t>An assessment of pollen limitation on Chicago green roofs</t>
+  </si>
+  <si>
+    <t>Ksiazek, K., Fant, J., &amp; Skogena, K.</t>
+  </si>
+  <si>
+    <t>Landscape and Urban Planning</t>
+  </si>
+  <si>
+    <t>A comparison of bee communities of Chicago green roofs, parks and prairies</t>
+  </si>
+  <si>
+    <t>Tonietto, R., Fant, J., Ascher, K., Ellis, D., &amp; Larkin, D.</t>
+  </si>
+  <si>
+    <t>Madre, F., Vergnes, A., Machon, N.,  &amp; Clergeau, P</t>
+  </si>
+  <si>
+    <t>A comparison of 3 types of green roof as habitats for arthropods</t>
+  </si>
+  <si>
+    <t>Ecological Engineering</t>
+  </si>
+  <si>
+    <t>Building biodiversity: Vegetated façades as habitats for spider and beetle assemblages</t>
+  </si>
+  <si>
+    <t>Madre, F., Clergeau, P., Machon, N.,  &amp; Vergnes, A.</t>
+  </si>
+  <si>
+    <t>Global Ecology and Conservation</t>
   </si>
 </sst>
 </file>
@@ -1286,11 +1374,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1595,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,7 +4331,7 @@
       <c r="A59">
         <v>949</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>405</v>
       </c>
       <c r="C59" t="s">
@@ -5848,7 +5933,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -5895,7 +5980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -5924,7 +6009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -5968,7 +6053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -5997,7 +6082,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6041,7 +6126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6088,8 +6173,345 @@
         <v>5</v>
       </c>
     </row>
+    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1286</v>
+      </c>
+      <c r="B103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C103" t="s">
+        <v>411</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+      <c r="E103">
+        <v>2013</v>
+      </c>
+      <c r="H103">
+        <v>53.010899999999999</v>
+      </c>
+      <c r="I103">
+        <v>-2.2277999999999998</v>
+      </c>
+      <c r="J103">
+        <v>124</v>
+      </c>
+      <c r="K103" t="s">
+        <v>413</v>
+      </c>
+      <c r="L103" t="s">
+        <v>141</v>
+      </c>
+      <c r="M103">
+        <v>0.12826399999999999</v>
+      </c>
+      <c r="N103">
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1287</v>
+      </c>
+      <c r="B104" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" t="s">
+        <v>416</v>
+      </c>
+      <c r="D104" t="s">
+        <v>289</v>
+      </c>
+      <c r="E104">
+        <v>2006</v>
+      </c>
+      <c r="L104" t="s">
+        <v>176</v>
+      </c>
+      <c r="O104" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1288</v>
+      </c>
+      <c r="B105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" t="s">
+        <v>418</v>
+      </c>
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105">
+        <v>2010</v>
+      </c>
+      <c r="F105" t="s">
+        <v>396</v>
+      </c>
+      <c r="L105" t="s">
+        <v>176</v>
+      </c>
+      <c r="O105" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1289</v>
+      </c>
+      <c r="B106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E106">
+        <v>2005</v>
+      </c>
+      <c r="F106" t="s">
+        <v>396</v>
+      </c>
+      <c r="H106">
+        <v>43.256667</v>
+      </c>
+      <c r="I106">
+        <v>-79.869167000000004</v>
+      </c>
+      <c r="J106">
+        <v>96</v>
+      </c>
+      <c r="K106" t="s">
+        <v>424</v>
+      </c>
+      <c r="L106" t="s">
+        <v>53</v>
+      </c>
+      <c r="M106">
+        <v>0.53691699999999998</v>
+      </c>
+      <c r="N106">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1290</v>
+      </c>
+      <c r="B107" t="s">
+        <v>425</v>
+      </c>
+      <c r="C107" t="s">
+        <v>426</v>
+      </c>
+      <c r="D107" t="s">
+        <v>427</v>
+      </c>
+      <c r="E107">
+        <v>2009</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107">
+        <v>43.7</v>
+      </c>
+      <c r="I107">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="J107">
+        <v>76</v>
+      </c>
+      <c r="K107" t="s">
+        <v>52</v>
+      </c>
+      <c r="L107" t="s">
+        <v>53</v>
+      </c>
+      <c r="M107">
+        <v>5.1327939999999996</v>
+      </c>
+      <c r="N107">
+        <v>2.931E-3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1291</v>
+      </c>
+      <c r="B108" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" t="s">
+        <v>429</v>
+      </c>
+      <c r="D108" t="s">
+        <v>430</v>
+      </c>
+      <c r="E108">
+        <v>2012</v>
+      </c>
+      <c r="H108">
+        <v>41.836944000000003</v>
+      </c>
+      <c r="I108">
+        <v>-87.684721999999994</v>
+      </c>
+      <c r="K108" t="s">
+        <v>261</v>
+      </c>
+      <c r="L108" t="s">
+        <v>37</v>
+      </c>
+      <c r="M108">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="N108">
+        <v>1.157E-2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1292</v>
+      </c>
+      <c r="B109" t="s">
+        <v>431</v>
+      </c>
+      <c r="C109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" t="s">
+        <v>430</v>
+      </c>
+      <c r="E109">
+        <v>2011</v>
+      </c>
+      <c r="H109">
+        <v>41.836944000000003</v>
+      </c>
+      <c r="I109">
+        <v>-87.684721999999994</v>
+      </c>
+      <c r="K109" t="s">
+        <v>261</v>
+      </c>
+      <c r="L109" t="s">
+        <v>37</v>
+      </c>
+      <c r="M109">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="N109">
+        <v>1.157E-2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1293</v>
+      </c>
+      <c r="B110" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110" t="s">
+        <v>435</v>
+      </c>
+      <c r="E110">
+        <v>2013</v>
+      </c>
+      <c r="F110" t="s">
+        <v>396</v>
+      </c>
+      <c r="L110" t="s">
+        <v>27</v>
+      </c>
+      <c r="O110" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1294</v>
+      </c>
+      <c r="B111" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111" t="s">
+        <v>437</v>
+      </c>
+      <c r="D111" t="s">
+        <v>438</v>
+      </c>
+      <c r="E111">
+        <v>2015</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" t="s">
+        <v>27</v>
+      </c>
+      <c r="O111" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>267</v>
+      </c>
+      <c r="XFD111">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
@@ -16,13 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="452">
   <si>
     <t>id</t>
   </si>
@@ -1339,13 +1333,52 @@
   </si>
   <si>
     <t>Global Ecology and Conservation</t>
+  </si>
+  <si>
+    <t>Digging the New York City skyline: soil fungal communities in green roofs and city parks</t>
+  </si>
+  <si>
+    <t>McGuire, K. L., Payne, S. G., Palmer, M. I., Gillikin, C. M., Keefe, D., Kim, S. J., ... &amp; Massmann, A. L</t>
+  </si>
+  <si>
+    <t>PloS One</t>
+  </si>
+  <si>
+    <t>fungal composition</t>
+  </si>
+  <si>
+    <t>Investigation of weed phenology in an establishing semi-extensive green roof</t>
+  </si>
+  <si>
+    <t>Nagase, A., Dunnett, N., &amp; Choi, M. S.</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Do green roofs provide habitat for bats in urban areas?</t>
+  </si>
+  <si>
+    <t>Pearce, H., &amp; Walters, C. L.</t>
+  </si>
+  <si>
+    <t>Acta chiropterologica</t>
+  </si>
+  <si>
+    <t>bat abundance</t>
+  </si>
+  <si>
+    <t>Soil microarthropod community dynamics in extensive green roofs</t>
+  </si>
+  <si>
+    <t>Rumble, H., &amp; Gange, A.C.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,7 +1469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1468,10 +1501,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,7 +1535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1679,16 +1710,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1800,7 +1831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1853,7 +1884,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1897,7 +1928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1944,7 +1975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2000,7 +2031,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2047,7 +2078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2097,7 +2128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2147,7 +2178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2191,7 +2222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2238,7 +2269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2288,7 +2319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2335,7 +2366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2367,7 +2398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2420,7 +2451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2514,7 +2545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2564,7 +2595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2611,7 +2642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2643,7 +2674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2693,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2725,7 +2756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2775,7 +2806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2822,7 +2853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2854,7 +2885,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>434</v>
       </c>
@@ -2901,7 +2932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>454</v>
       </c>
@@ -2948,7 +2979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>463</v>
       </c>
@@ -2995,7 +3026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3042,7 +3073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3068,7 +3099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3121,7 +3152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3165,7 +3196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3212,7 +3243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3244,7 +3275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3297,7 +3328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3353,7 +3384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3397,7 +3428,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3444,7 +3475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3485,7 +3516,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3526,7 +3557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3573,7 +3604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3623,7 +3654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3673,7 +3704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3702,7 +3733,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3752,7 +3783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3799,7 +3830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3828,7 +3859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3875,7 +3906,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>777</v>
       </c>
@@ -3922,7 +3953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>787</v>
       </c>
@@ -3969,7 +4000,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>800</v>
       </c>
@@ -3998,7 +4029,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4039,7 +4070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4089,7 +4120,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4139,7 +4170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4189,7 +4220,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4239,7 +4270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4280,7 +4311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>926</v>
       </c>
@@ -4327,7 +4358,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4359,7 +4390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4388,7 +4419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4429,7 +4460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4467,7 +4498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4505,7 +4536,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4552,7 +4583,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4602,7 +4633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4655,7 +4686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4699,7 +4730,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4746,7 +4777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4790,7 +4821,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4819,7 +4850,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -4866,7 +4897,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -4913,7 +4944,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -4957,7 +4988,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5001,7 +5032,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5045,7 +5076,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5086,7 +5117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5133,7 +5164,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5177,7 +5208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5224,7 +5255,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5268,7 +5299,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5318,7 +5349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5365,7 +5396,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5412,7 +5443,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5456,7 +5487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5485,7 +5516,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5520,7 +5551,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5549,7 +5580,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5578,7 +5609,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5604,7 +5635,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5654,7 +5685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5701,7 +5732,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5748,7 +5779,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -5798,7 +5829,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -5842,7 +5873,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -5889,7 +5920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -5933,7 +5964,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22 16384:16384">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -5980,7 +6011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22 16384:16384">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6009,7 +6040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22 16384:16384">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6053,7 +6084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22 16384:16384">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6082,7 +6113,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22 16384:16384">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6126,7 +6157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22 16384:16384">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6173,7 +6204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22 16384:16384">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6217,7 +6248,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22 16384:16384">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6243,7 +6274,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22 16384:16384">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6272,7 +6303,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22 16384:16384">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6319,7 +6350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22 16384:16384">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6366,7 +6397,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22 16384:16384">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6407,7 +6438,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22 16384:16384">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6448,7 +6479,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22 16384:16384">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6477,7 +6508,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22 16384:16384">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6507,6 +6538,194 @@
       </c>
       <c r="XFD111">
         <v>2013</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22 16384:16384">
+      <c r="A112">
+        <v>1295</v>
+      </c>
+      <c r="B112" t="s">
+        <v>439</v>
+      </c>
+      <c r="C112" t="s">
+        <v>440</v>
+      </c>
+      <c r="D112" t="s">
+        <v>441</v>
+      </c>
+      <c r="E112">
+        <v>2013</v>
+      </c>
+      <c r="F112" t="s">
+        <v>396</v>
+      </c>
+      <c r="H112">
+        <v>40.712777799999998</v>
+      </c>
+      <c r="I112">
+        <v>-74.005832999999996</v>
+      </c>
+      <c r="J112">
+        <v>10</v>
+      </c>
+      <c r="K112" t="s">
+        <v>192</v>
+      </c>
+      <c r="L112" t="s">
+        <v>37</v>
+      </c>
+      <c r="M112">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="N112">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113">
+        <v>1296</v>
+      </c>
+      <c r="B113" t="s">
+        <v>443</v>
+      </c>
+      <c r="C113" t="s">
+        <v>444</v>
+      </c>
+      <c r="D113" t="s">
+        <v>435</v>
+      </c>
+      <c r="E113">
+        <v>2013</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113">
+        <v>53.43</v>
+      </c>
+      <c r="I113">
+        <v>-1.357</v>
+      </c>
+      <c r="J113">
+        <v>43</v>
+      </c>
+      <c r="K113" t="s">
+        <v>445</v>
+      </c>
+      <c r="L113" t="s">
+        <v>141</v>
+      </c>
+      <c r="M113">
+        <v>0.109691</v>
+      </c>
+      <c r="N113">
+        <v>1.029E-3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114">
+        <v>1297</v>
+      </c>
+      <c r="B114" t="s">
+        <v>446</v>
+      </c>
+      <c r="C114" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" t="s">
+        <v>448</v>
+      </c>
+      <c r="E114">
+        <v>2012</v>
+      </c>
+      <c r="F114" t="s">
+        <v>396</v>
+      </c>
+      <c r="H114">
+        <v>51.507221999999999</v>
+      </c>
+      <c r="I114">
+        <v>-0.1275</v>
+      </c>
+      <c r="J114">
+        <v>35</v>
+      </c>
+      <c r="K114" t="s">
+        <v>140</v>
+      </c>
+      <c r="L114" t="s">
+        <v>141</v>
+      </c>
+      <c r="M114">
+        <v>9.7870000000000008</v>
+      </c>
+      <c r="N114">
+        <v>5.6369999999999996E-3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115">
+        <v>1298</v>
+      </c>
+      <c r="B115" t="s">
+        <v>450</v>
+      </c>
+      <c r="C115" t="s">
+        <v>451</v>
+      </c>
+      <c r="D115" t="s">
+        <v>435</v>
+      </c>
+      <c r="E115">
+        <v>2013</v>
+      </c>
+      <c r="F115" t="s">
+        <v>396</v>
+      </c>
+      <c r="H115">
+        <v>51.507221999999999</v>
+      </c>
+      <c r="I115">
+        <v>-0.1275</v>
+      </c>
+      <c r="J115">
+        <v>35</v>
+      </c>
+      <c r="K115" t="s">
+        <v>140</v>
+      </c>
+      <c r="L115" t="s">
+        <v>141</v>
+      </c>
+      <c r="M115">
+        <v>9.7870000000000008</v>
+      </c>
+      <c r="N115">
+        <v>5.6369999999999996E-3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6516,24 +6735,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="466">
   <si>
     <t>id</t>
   </si>
@@ -1372,13 +1377,55 @@
   </si>
   <si>
     <t>Rumble, H., &amp; Gange, A.C.</t>
+  </si>
+  <si>
+    <t>Habitat connectivity shapes urban arthropod communities: the key role of green roofs</t>
+  </si>
+  <si>
+    <t>Braaker, S., Ghazoul, J., Obrist, M.K., &amp; Moretti, M.</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Schindler, B.Y., Griffith, A.B., &amp; Jones, K.N.</t>
+  </si>
+  <si>
+    <t>Factors Influencing Arthropod Diversity on Green Roofs</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Soil formation on green roofs and its contribution to urban biodiversity with emphasis on Collembolans</t>
+  </si>
+  <si>
+    <t>Schrader, S. &amp; Böning, M.</t>
+  </si>
+  <si>
+    <t>Pedobiologia</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>springtails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rare Invertebrates Colonizing Green Roofs in London </t>
+  </si>
+  <si>
+    <t>Kadas, G.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,7 +1516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1501,9 +1548,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1535,6 +1583,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1710,16 +1759,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N121" sqref="N121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1831,7 +1883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1884,7 +1936,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1928,7 +1980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1975,7 +2027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2031,7 +2083,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2078,7 +2130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2128,7 +2180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2178,7 +2230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2222,7 +2274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2269,7 +2321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2319,7 +2371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2366,7 +2418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2398,7 +2450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2451,7 +2503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2498,7 +2550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2545,7 +2597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2595,7 +2647,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2642,7 +2694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2674,7 +2726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2724,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2756,7 +2808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2806,7 +2858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2853,7 +2905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>434</v>
       </c>
@@ -2932,7 +2984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>454</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>463</v>
       </c>
@@ -3026,7 +3078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3073,7 +3125,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3099,7 +3151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3152,7 +3204,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3196,7 +3248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3243,7 +3295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3275,7 +3327,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3328,7 +3380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3384,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3428,7 +3480,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3475,7 +3527,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3516,7 +3568,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3557,7 +3609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3604,7 +3656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3654,7 +3706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3704,7 +3756,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3733,7 +3785,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3783,7 +3835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3830,7 +3882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3859,7 +3911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3906,7 +3958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>777</v>
       </c>
@@ -3953,7 +4005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>787</v>
       </c>
@@ -4000,7 +4052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>800</v>
       </c>
@@ -4029,7 +4081,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4070,7 +4122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4120,7 +4172,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4170,7 +4222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4220,7 +4272,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4270,7 +4322,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4311,7 +4363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>926</v>
       </c>
@@ -4358,7 +4410,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4390,7 +4442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4419,7 +4471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4460,7 +4512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4498,7 +4550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4536,7 +4588,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4583,7 +4635,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4633,7 +4685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4686,7 +4738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4730,7 +4782,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4777,7 +4829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4821,7 +4873,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4850,7 +4902,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -4897,7 +4949,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -4944,7 +4996,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -4988,7 +5040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5032,7 +5084,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5076,7 +5128,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5117,7 +5169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5164,7 +5216,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5208,7 +5260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5255,7 +5307,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5299,7 +5351,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5349,7 +5401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5396,7 +5448,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5443,7 +5495,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5487,7 +5539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5516,7 +5568,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5551,7 +5603,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5580,7 +5632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5609,7 +5661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5635,7 +5687,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5685,7 +5737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5732,7 +5784,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5779,7 +5831,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -5873,7 +5925,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -5920,7 +5972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -5964,7 +6016,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384">
+    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -6011,7 +6063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384">
+    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6040,7 +6092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384">
+    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6084,7 +6136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384">
+    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6113,7 +6165,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384">
+    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6157,7 +6209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384">
+    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6204,7 +6256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384">
+    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6248,7 +6300,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384">
+    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6274,7 +6326,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384">
+    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6303,7 +6355,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384">
+    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6350,7 +6402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384">
+    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6397,7 +6449,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384">
+    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6438,7 +6490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384">
+    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6479,7 +6531,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384">
+    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6508,7 +6560,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384">
+    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6540,7 +6592,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:22 16384:16384">
+    <row r="112" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1295</v>
       </c>
@@ -6587,7 +6639,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1296</v>
       </c>
@@ -6634,7 +6686,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1297</v>
       </c>
@@ -6681,7 +6733,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1298</v>
       </c>
@@ -6725,6 +6777,194 @@
         <v>28</v>
       </c>
       <c r="Q115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1299</v>
+      </c>
+      <c r="B116" t="s">
+        <v>452</v>
+      </c>
+      <c r="C116" t="s">
+        <v>453</v>
+      </c>
+      <c r="D116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E116">
+        <v>2014</v>
+      </c>
+      <c r="F116" t="s">
+        <v>396</v>
+      </c>
+      <c r="H116">
+        <v>47.366667</v>
+      </c>
+      <c r="I116">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J116">
+        <v>392</v>
+      </c>
+      <c r="K116" t="s">
+        <v>455</v>
+      </c>
+      <c r="L116" t="s">
+        <v>176</v>
+      </c>
+      <c r="M116">
+        <v>0.40276200000000001</v>
+      </c>
+      <c r="N116">
+        <v>4.5820000000000001E-3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1300</v>
+      </c>
+      <c r="B117" t="s">
+        <v>457</v>
+      </c>
+      <c r="C117" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" t="s">
+        <v>427</v>
+      </c>
+      <c r="E117">
+        <v>2011</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117">
+        <v>42.358055999999998</v>
+      </c>
+      <c r="I117">
+        <v>-71.063610999999995</v>
+      </c>
+      <c r="J117">
+        <v>141</v>
+      </c>
+      <c r="K117" t="s">
+        <v>458</v>
+      </c>
+      <c r="L117" t="s">
+        <v>37</v>
+      </c>
+      <c r="M117">
+        <v>0.68509399999999998</v>
+      </c>
+      <c r="N117">
+        <v>7.646E-3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1301</v>
+      </c>
+      <c r="B118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" t="s">
+        <v>460</v>
+      </c>
+      <c r="D118" t="s">
+        <v>461</v>
+      </c>
+      <c r="E118">
+        <v>2006</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <v>52.366667</v>
+      </c>
+      <c r="I118">
+        <v>9.7166669999999993</v>
+      </c>
+      <c r="J118">
+        <v>55</v>
+      </c>
+      <c r="K118" t="s">
+        <v>462</v>
+      </c>
+      <c r="L118" t="s">
+        <v>79</v>
+      </c>
+      <c r="M118">
+        <v>0.53216300000000005</v>
+      </c>
+      <c r="N118">
+        <v>2.6090000000000002E-3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1302</v>
+      </c>
+      <c r="B119" t="s">
+        <v>464</v>
+      </c>
+      <c r="C119" t="s">
+        <v>465</v>
+      </c>
+      <c r="D119" t="s">
+        <v>289</v>
+      </c>
+      <c r="E119">
+        <v>2006</v>
+      </c>
+      <c r="F119" t="s">
+        <v>396</v>
+      </c>
+      <c r="H119">
+        <v>51.507221999999999</v>
+      </c>
+      <c r="I119">
+        <v>-0.1275</v>
+      </c>
+      <c r="J119">
+        <v>35</v>
+      </c>
+      <c r="K119" t="s">
+        <v>140</v>
+      </c>
+      <c r="L119" t="s">
+        <v>141</v>
+      </c>
+      <c r="M119">
+        <v>9.7870000000000008</v>
+      </c>
+      <c r="N119">
+        <v>5.6369999999999996E-3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q119" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6735,24 +6975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -13,15 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="471">
   <si>
     <t>id</t>
   </si>
@@ -1419,6 +1417,21 @@
   </si>
   <si>
     <t>Kadas, G.</t>
+  </si>
+  <si>
+    <t>Urban domestic gardens (VI): environmental correlates of invertebrate species richness</t>
+  </si>
+  <si>
+    <t>Smith, R.M., Warren, P.H., Thompson, K., &amp; Gaston, K.J.</t>
+  </si>
+  <si>
+    <t>Biodiversity and Conservation</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Inverness</t>
   </si>
 </sst>
 </file>
@@ -1760,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD119"/>
+  <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N121" sqref="N121"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,11 +4439,17 @@
       <c r="E59">
         <v>2014</v>
       </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
       <c r="H59">
         <v>51.133000000000003</v>
       </c>
       <c r="I59">
         <v>-1.95</v>
+      </c>
+      <c r="L59" t="s">
+        <v>141</v>
       </c>
       <c r="O59" t="s">
         <v>126</v>
@@ -4458,8 +4477,29 @@
       <c r="E60">
         <v>2014</v>
       </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60">
+        <v>57.471800000000002</v>
+      </c>
+      <c r="I60">
+        <v>-4.2253999999999996</v>
+      </c>
+      <c r="J60">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>470</v>
+      </c>
       <c r="L60" t="s">
         <v>259</v>
+      </c>
+      <c r="M60">
+        <v>6.8779999999999994E-2</v>
+      </c>
+      <c r="N60">
+        <v>3.2750000000000001E-3</v>
       </c>
       <c r="O60" t="s">
         <v>149</v>
@@ -4487,6 +4527,9 @@
       <c r="E61">
         <v>2018</v>
       </c>
+      <c r="F61" t="s">
+        <v>400</v>
+      </c>
       <c r="H61">
         <v>41.836944000000003</v>
       </c>
@@ -4528,6 +4571,9 @@
       <c r="E62">
         <v>2008</v>
       </c>
+      <c r="F62" t="s">
+        <v>396</v>
+      </c>
       <c r="H62">
         <v>52.235159000000003</v>
       </c>
@@ -4566,6 +4612,9 @@
       <c r="E63">
         <v>2011</v>
       </c>
+      <c r="F63" t="s">
+        <v>396</v>
+      </c>
       <c r="H63">
         <v>39.823430000000002</v>
       </c>
@@ -4604,6 +4653,9 @@
       <c r="E64">
         <v>2010</v>
       </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
       <c r="H64">
         <v>39.283332999999999</v>
       </c>
@@ -4651,6 +4703,9 @@
       <c r="E65">
         <v>2014</v>
       </c>
+      <c r="F65" t="s">
+        <v>396</v>
+      </c>
       <c r="H65">
         <v>39.283332999999999</v>
       </c>
@@ -4701,6 +4756,9 @@
       <c r="E66">
         <v>2013</v>
       </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
       <c r="H66">
         <v>53.533332999999999</v>
       </c>
@@ -4754,6 +4812,9 @@
       <c r="E67">
         <v>2006</v>
       </c>
+      <c r="F67" t="s">
+        <v>400</v>
+      </c>
       <c r="H67">
         <v>47.566667000000002</v>
       </c>
@@ -4798,6 +4859,9 @@
       <c r="E68">
         <v>2008</v>
       </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
       <c r="H68">
         <v>40.712777799999998</v>
       </c>
@@ -4845,6 +4909,9 @@
       <c r="E69">
         <v>2007</v>
       </c>
+      <c r="F69" t="s">
+        <v>396</v>
+      </c>
       <c r="H69">
         <v>59.329444000000002</v>
       </c>
@@ -4889,6 +4956,9 @@
       <c r="E70">
         <v>2008</v>
       </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
       <c r="L70" t="s">
         <v>141</v>
       </c>
@@ -6965,6 +7035,53 @@
         <v>28</v>
       </c>
       <c r="Q119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1303</v>
+      </c>
+      <c r="B120" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" t="s">
+        <v>467</v>
+      </c>
+      <c r="D120" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120">
+        <v>2006</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120">
+        <v>53.383611000000002</v>
+      </c>
+      <c r="I120">
+        <v>-1.466944</v>
+      </c>
+      <c r="J120">
+        <v>77</v>
+      </c>
+      <c r="K120" t="s">
+        <v>469</v>
+      </c>
+      <c r="L120" t="s">
+        <v>141</v>
+      </c>
+      <c r="M120">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="N120">
+        <v>1.5740000000000001E-3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q120" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6972,28 +7089,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="471">
   <si>
     <t>id</t>
   </si>
@@ -1437,8 +1432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,7 +1524,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1561,10 +1556,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1596,7 +1590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1772,19 +1765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1896,7 +1889,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1949,7 +1942,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1993,7 +1986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2040,7 +2033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2096,7 +2089,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2143,7 +2136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2287,7 +2280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2334,7 +2327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2384,7 +2377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2431,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2463,7 +2456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2516,7 +2509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2563,7 +2556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2610,7 +2603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2660,7 +2653,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2707,7 +2700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2739,7 +2732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2789,7 +2782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2821,7 +2814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2871,7 +2864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2918,7 +2911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2950,7 +2943,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>434</v>
       </c>
@@ -2997,7 +2990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>454</v>
       </c>
@@ -3044,7 +3037,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>463</v>
       </c>
@@ -3091,7 +3084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3138,7 +3131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3164,7 +3157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3217,7 +3210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3261,7 +3254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3308,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3340,7 +3333,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3393,7 +3386,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3449,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3493,7 +3486,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3540,7 +3533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3581,7 +3574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3669,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3719,7 +3712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3769,7 +3762,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3798,7 +3791,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3848,7 +3841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3895,7 +3888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3924,7 +3917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3971,7 +3964,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>777</v>
       </c>
@@ -4018,7 +4011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>787</v>
       </c>
@@ -4065,7 +4058,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>800</v>
       </c>
@@ -4094,7 +4087,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4135,7 +4128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4185,7 +4178,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4235,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4285,7 +4278,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4335,7 +4328,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4376,7 +4369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>926</v>
       </c>
@@ -4423,7 +4416,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4461,7 +4454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4511,7 +4504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4555,7 +4548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4596,7 +4589,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4637,7 +4630,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4687,7 +4680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4740,7 +4733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4796,7 +4789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4843,7 +4836,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4893,7 +4886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4940,7 +4933,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4972,7 +4965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -4988,6 +4981,9 @@
       <c r="E71">
         <v>2011</v>
       </c>
+      <c r="F71" t="s">
+        <v>396</v>
+      </c>
       <c r="H71">
         <v>52.483055999999998</v>
       </c>
@@ -5019,7 +5015,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -5035,6 +5031,9 @@
       <c r="E72">
         <v>2009</v>
       </c>
+      <c r="F72" t="s">
+        <v>396</v>
+      </c>
       <c r="H72">
         <v>59.329444000000002</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -5082,6 +5081,9 @@
       <c r="E73">
         <v>1999</v>
       </c>
+      <c r="F73" t="s">
+        <v>400</v>
+      </c>
       <c r="H73">
         <v>52.204999999999998</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5126,6 +5128,9 @@
       <c r="E74">
         <v>2012</v>
       </c>
+      <c r="F74" t="s">
+        <v>396</v>
+      </c>
       <c r="H74">
         <v>52.4</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5170,6 +5175,9 @@
       <c r="E75">
         <v>2008</v>
       </c>
+      <c r="F75" t="s">
+        <v>400</v>
+      </c>
       <c r="H75">
         <v>40.712777799999998</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5214,6 +5222,9 @@
       <c r="E76">
         <v>2014</v>
       </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
       <c r="H76">
         <v>48.856699999999996</v>
       </c>
@@ -5239,7 +5250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5255,6 +5266,9 @@
       <c r="E77">
         <v>2013</v>
       </c>
+      <c r="F77" t="s">
+        <v>396</v>
+      </c>
       <c r="H77">
         <v>40.712777799999998</v>
       </c>
@@ -5286,7 +5300,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5302,6 +5316,9 @@
       <c r="E78">
         <v>2013</v>
       </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
       <c r="H78">
         <v>48.856699999999996</v>
       </c>
@@ -5330,7 +5347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5346,6 +5363,9 @@
       <c r="E79">
         <v>2015</v>
       </c>
+      <c r="F79" t="s">
+        <v>396</v>
+      </c>
       <c r="H79">
         <v>-37.813609999999997</v>
       </c>
@@ -5377,7 +5397,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5393,6 +5413,9 @@
       <c r="E80">
         <v>2014</v>
       </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
       <c r="H80">
         <v>41.836944000000003</v>
       </c>
@@ -5421,7 +5444,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5471,7 +5494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5518,7 +5541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5565,7 +5588,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5609,7 +5632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5673,7 +5696,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5702,7 +5725,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5731,7 +5754,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5757,7 +5780,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5807,7 +5830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5854,7 +5877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5901,7 +5924,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -5951,7 +5974,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -5995,7 +6018,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -6042,7 +6065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -6086,7 +6109,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22 16384:16384">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -6133,7 +6156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22 16384:16384">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6162,7 +6185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22 16384:16384">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6206,7 +6229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22 16384:16384">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6235,7 +6258,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22 16384:16384">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6279,7 +6302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22 16384:16384">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6326,7 +6349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22 16384:16384">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6370,7 +6393,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22 16384:16384">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6396,7 +6419,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22 16384:16384">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6425,7 +6448,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22 16384:16384">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6472,7 +6495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22 16384:16384">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6519,7 +6542,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22 16384:16384">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6560,7 +6583,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22 16384:16384">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6601,7 +6624,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22 16384:16384">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6630,7 +6653,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22 16384:16384">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6662,7 +6685,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22 16384:16384">
       <c r="A112">
         <v>1295</v>
       </c>
@@ -6709,7 +6732,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>1296</v>
       </c>
@@ -6756,7 +6779,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>1297</v>
       </c>
@@ -6803,7 +6826,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>1298</v>
       </c>
@@ -6850,7 +6873,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>1299</v>
       </c>
@@ -6897,7 +6920,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>1300</v>
       </c>
@@ -6944,7 +6967,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>1301</v>
       </c>
@@ -6991,7 +7014,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>1302</v>
       </c>
@@ -7038,7 +7061,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>1303</v>
       </c>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="471">
   <si>
     <t>id</t>
   </si>
@@ -1432,8 +1437,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,7 +1529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,9 +1561,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1590,6 +1596,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1765,19 +1772,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2089,7 +2096,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2280,7 +2287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2377,7 +2384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2509,7 +2516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2782,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2814,7 +2821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2864,7 +2871,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>434</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>454</v>
       </c>
@@ -3037,7 +3044,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>463</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3131,7 +3138,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3157,7 +3164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3210,7 +3217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3254,7 +3261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3301,7 +3308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3333,7 +3340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3386,7 +3393,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3486,7 +3493,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3615,7 +3622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3662,7 +3669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3712,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3762,7 +3769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3791,7 +3798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3841,7 +3848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3917,7 +3924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3964,7 +3971,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>777</v>
       </c>
@@ -4011,7 +4018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>787</v>
       </c>
@@ -4058,7 +4065,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>800</v>
       </c>
@@ -4087,7 +4094,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4128,7 +4135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4369,7 +4376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>926</v>
       </c>
@@ -4416,7 +4423,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4548,7 +4555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4630,7 +4637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4680,7 +4687,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4789,7 +4796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4836,7 +4843,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -5015,7 +5022,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -5065,7 +5072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -5112,7 +5119,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5159,7 +5166,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5250,7 +5257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5347,7 +5354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5460,6 +5467,9 @@
       <c r="E81">
         <v>2011</v>
       </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
       <c r="H81">
         <v>40.712777799999998</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5510,6 +5520,9 @@
       <c r="E82">
         <v>2014</v>
       </c>
+      <c r="F82" t="s">
+        <v>396</v>
+      </c>
       <c r="H82">
         <v>43.7</v>
       </c>
@@ -5541,7 +5554,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5557,6 +5570,9 @@
       <c r="E83">
         <v>2014</v>
       </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
       <c r="H83">
         <v>50.371389000000001</v>
       </c>
@@ -5588,7 +5604,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5604,6 +5620,9 @@
       <c r="E84">
         <v>2015</v>
       </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
       <c r="H84">
         <v>41.836944000000003</v>
       </c>
@@ -5632,7 +5651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5648,6 +5667,9 @@
       <c r="E85">
         <v>2016</v>
       </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
       <c r="L85" t="s">
         <v>105</v>
       </c>
@@ -5661,7 +5683,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5677,6 +5699,9 @@
       <c r="E86">
         <v>2015</v>
       </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
       <c r="H86">
         <v>50.802999999999997</v>
       </c>
@@ -5696,7 +5721,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5725,7 +5750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5754,7 +5779,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5780,7 +5805,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5830,7 +5855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5877,7 +5902,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5924,7 +5949,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -5974,7 +5999,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -6018,7 +6043,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -6065,7 +6090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -6109,7 +6134,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384">
+    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -6156,7 +6181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384">
+    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6185,7 +6210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384">
+    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6229,7 +6254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384">
+    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6258,7 +6283,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384">
+    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6302,7 +6327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384">
+    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6349,7 +6374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384">
+    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384">
+    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6419,7 +6444,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384">
+    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6448,7 +6473,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384">
+    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6495,7 +6520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384">
+    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6542,7 +6567,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384">
+    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6583,7 +6608,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384">
+    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6624,7 +6649,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384">
+    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6653,7 +6678,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384">
+    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6685,7 +6710,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:22 16384:16384">
+    <row r="112" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1295</v>
       </c>
@@ -6732,7 +6757,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1296</v>
       </c>
@@ -6779,7 +6804,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1297</v>
       </c>
@@ -6826,7 +6851,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1298</v>
       </c>
@@ -6873,7 +6898,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1299</v>
       </c>
@@ -6920,7 +6945,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1300</v>
       </c>
@@ -6967,7 +6992,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1301</v>
       </c>
@@ -7014,7 +7039,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1302</v>
       </c>
@@ -7061,7 +7086,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1303</v>
       </c>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="472">
   <si>
     <t>id</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Inverness</t>
+  </si>
+  <si>
+    <t>stat.output</t>
   </si>
 </sst>
 </file>
@@ -1775,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4989,7 +4992,7 @@
         <v>2011</v>
       </c>
       <c r="F71" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="H71">
         <v>52.483055999999998</v>
@@ -5737,6 +5740,9 @@
       <c r="E87">
         <v>2015</v>
       </c>
+      <c r="F87" t="s">
+        <v>471</v>
+      </c>
       <c r="L87" t="s">
         <v>27</v>
       </c>
@@ -5766,6 +5772,9 @@
       <c r="E88">
         <v>2014</v>
       </c>
+      <c r="F88" t="s">
+        <v>471</v>
+      </c>
       <c r="L88" t="s">
         <v>141</v>
       </c>
@@ -5795,6 +5804,9 @@
       <c r="E89">
         <v>2011</v>
       </c>
+      <c r="F89" t="s">
+        <v>471</v>
+      </c>
       <c r="L89" t="s">
         <v>355</v>
       </c>
@@ -5821,6 +5833,9 @@
       <c r="E90">
         <v>2014</v>
       </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
       <c r="H90">
         <v>57.7</v>
       </c>
@@ -5871,6 +5886,9 @@
       <c r="E91">
         <v>2016</v>
       </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
       <c r="H91">
         <v>52.516666999999998</v>
       </c>
@@ -5918,6 +5936,9 @@
       <c r="E92">
         <v>2017</v>
       </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
       <c r="H92">
         <v>45.5</v>
       </c>
@@ -5965,6 +5986,9 @@
       <c r="E93">
         <v>2016</v>
       </c>
+      <c r="F93" t="s">
+        <v>400</v>
+      </c>
       <c r="H93">
         <v>33.450000000000003</v>
       </c>
@@ -6015,6 +6039,9 @@
       <c r="E94">
         <v>2018</v>
       </c>
+      <c r="F94" t="s">
+        <v>26</v>
+      </c>
       <c r="H94">
         <v>42.101388999999998</v>
       </c>
@@ -6059,6 +6086,9 @@
       <c r="E95">
         <v>2018</v>
       </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
       <c r="H95">
         <v>48.179349999999999</v>
       </c>
@@ -6106,6 +6136,9 @@
       <c r="E96">
         <v>2018</v>
       </c>
+      <c r="F96" t="s">
+        <v>400</v>
+      </c>
       <c r="H96">
         <v>38.627222000000003</v>
       </c>
@@ -6150,6 +6183,9 @@
       <c r="E97">
         <v>2017</v>
       </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
       <c r="H97">
         <v>46.816667000000002</v>
       </c>
@@ -6197,6 +6233,9 @@
       <c r="E98">
         <v>2017</v>
       </c>
+      <c r="F98" t="s">
+        <v>400</v>
+      </c>
       <c r="L98" t="s">
         <v>37</v>
       </c>
@@ -6226,6 +6265,9 @@
       <c r="E99">
         <v>2017</v>
       </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
       <c r="H99">
         <v>41.665556000000002</v>
       </c>
@@ -6270,6 +6312,9 @@
       <c r="E100">
         <v>2017</v>
       </c>
+      <c r="F100" t="s">
+        <v>26</v>
+      </c>
       <c r="L100" t="s">
         <v>130</v>
       </c>
@@ -6299,6 +6344,9 @@
       <c r="E101">
         <v>2017</v>
       </c>
+      <c r="F101" t="s">
+        <v>26</v>
+      </c>
       <c r="H101">
         <v>-33.865000000000002</v>
       </c>
@@ -6343,6 +6391,9 @@
       <c r="E102">
         <v>2010</v>
       </c>
+      <c r="F102" t="s">
+        <v>396</v>
+      </c>
       <c r="H102">
         <v>44.647778000000002</v>
       </c>
@@ -6390,6 +6441,9 @@
       <c r="E103">
         <v>2013</v>
       </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
       <c r="H103">
         <v>53.010899999999999</v>
       </c>
@@ -6434,6 +6488,9 @@
       <c r="E104">
         <v>2006</v>
       </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
       <c r="L104" t="s">
         <v>176</v>
       </c>
@@ -6583,6 +6640,9 @@
       <c r="E108">
         <v>2012</v>
       </c>
+      <c r="F108" t="s">
+        <v>400</v>
+      </c>
       <c r="H108">
         <v>41.836944000000003</v>
       </c>
@@ -6623,6 +6683,9 @@
       </c>
       <c r="E109">
         <v>2011</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
       </c>
       <c r="H109">
         <v>41.836944000000003</v>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,7 +4616,7 @@
         <v>2011</v>
       </c>
       <c r="F63" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="H63">
         <v>39.823430000000002</v>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2483,7 @@
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>-37.813609999999997</v>
@@ -6978,7 +6978,7 @@
         <v>2014</v>
       </c>
       <c r="F116" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="H116">
         <v>47.366667</v>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1440,8 +1435,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1532,7 +1527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1564,10 +1559,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,7 +1593,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1775,19 +1768,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1899,7 +1892,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1952,7 +1945,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1996,7 +1989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2043,7 +2036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2099,7 +2092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2146,7 +2139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2246,7 +2239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2290,7 +2283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2337,7 +2330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2387,7 +2380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2434,7 +2427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2466,7 +2459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2519,7 +2512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2566,7 +2559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2613,7 +2606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2663,7 +2656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2710,7 +2703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2742,7 +2735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2824,7 +2817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2874,7 +2867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2921,7 +2914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2953,7 +2946,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>434</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>454</v>
       </c>
@@ -3047,7 +3040,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>463</v>
       </c>
@@ -3094,7 +3087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3141,7 +3134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3167,7 +3160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3311,7 +3304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3343,7 +3336,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3396,7 +3389,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3452,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3496,7 +3489,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3543,7 +3536,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3584,7 +3577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3625,7 +3618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3672,7 +3665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3722,7 +3715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3772,7 +3765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3801,7 +3794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3851,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3898,7 +3891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3974,7 +3967,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>777</v>
       </c>
@@ -4021,7 +4014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>787</v>
       </c>
@@ -4068,7 +4061,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>800</v>
       </c>
@@ -4097,7 +4090,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4138,7 +4131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4188,7 +4181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4238,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4288,7 +4281,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4338,7 +4331,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4379,7 +4372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>926</v>
       </c>
@@ -4426,7 +4419,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4464,7 +4457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4514,7 +4507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4558,7 +4551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4599,7 +4592,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4640,7 +4633,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4690,7 +4683,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4743,7 +4736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4799,7 +4792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4846,7 +4839,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4896,7 +4889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4943,7 +4936,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4975,7 +4968,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -5025,7 +5018,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -5075,7 +5068,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -5122,7 +5115,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5169,7 +5162,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5216,7 +5209,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5260,7 +5253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5310,7 +5303,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5357,7 +5350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5407,7 +5400,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5454,7 +5447,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5507,7 +5500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5607,7 +5600,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5654,7 +5647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5686,7 +5679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5724,7 +5717,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5756,7 +5749,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5788,7 +5781,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5817,7 +5810,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5870,7 +5863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5920,7 +5913,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5970,7 +5963,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -6023,7 +6016,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -6070,7 +6063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -6120,7 +6113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -6167,7 +6160,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22 16384:16384">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -6217,7 +6210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22 16384:16384">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6249,7 +6242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22 16384:16384">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6296,7 +6289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22 16384:16384">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6328,7 +6321,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22 16384:16384">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6375,7 +6368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22 16384:16384">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6425,7 +6418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22 16384:16384">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6472,7 +6465,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22 16384:16384">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6501,7 +6494,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22 16384:16384">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6530,7 +6523,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22 16384:16384">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6577,7 +6570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22 16384:16384">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6624,7 +6617,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22 16384:16384">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6668,7 +6661,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22 16384:16384">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6712,7 +6705,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22 16384:16384">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6741,7 +6734,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22 16384:16384">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6773,7 +6766,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22 16384:16384">
       <c r="A112">
         <v>1295</v>
       </c>
@@ -6820,7 +6813,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>1296</v>
       </c>
@@ -6867,7 +6860,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>1297</v>
       </c>
@@ -6914,7 +6907,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>1298</v>
       </c>
@@ -6961,7 +6954,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>1299</v>
       </c>
@@ -7008,7 +7001,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>1300</v>
       </c>
@@ -7055,7 +7048,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>1301</v>
       </c>
@@ -7102,7 +7095,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>1302</v>
       </c>
@@ -7149,7 +7142,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>1303</v>
       </c>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -1430,13 +1435,28 @@
   </si>
   <si>
     <t>stat.output</t>
+  </si>
+  <si>
+    <t>Urban green roofs provide habitat for migrating and breeding birds and their arthropod prey</t>
+  </si>
+  <si>
+    <t>Partridge, D., &amp; Clark, J.A.</t>
+  </si>
+  <si>
+    <t>bird composition</t>
+  </si>
+  <si>
+    <t>Stormwater wetlands for the enhancement of environmental ecosystem services: case studies for two retrofit wetlands in Brisbane, Australia</t>
+  </si>
+  <si>
+    <t>Journal of Cleaner Production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,7 +1547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1559,9 +1579,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1593,6 +1614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1768,19 +1790,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M124" sqref="M124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1892,7 +1914,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1945,7 +1967,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2036,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2092,7 +2114,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2139,7 +2161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2189,7 +2211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2239,7 +2261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2283,7 +2305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2330,7 +2352,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2380,7 +2402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2427,7 +2449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2459,7 +2481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2512,7 +2534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2559,7 +2581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2606,7 +2628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2656,7 +2678,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2703,7 +2725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2735,7 +2757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2785,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2817,7 +2839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2867,7 +2889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2914,7 +2936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2946,7 +2968,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>434</v>
       </c>
@@ -2993,7 +3015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>454</v>
       </c>
@@ -3040,7 +3062,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>463</v>
       </c>
@@ -3087,7 +3109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3134,7 +3156,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3160,7 +3182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3213,7 +3235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3257,7 +3279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3304,7 +3326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3336,7 +3358,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3389,7 +3411,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3445,7 +3467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3489,7 +3511,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3536,7 +3558,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3577,7 +3599,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3618,7 +3640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3665,7 +3687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3715,7 +3737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3765,7 +3787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3794,7 +3816,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3844,7 +3866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3891,7 +3913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3920,7 +3942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3967,7 +3989,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>777</v>
       </c>
@@ -4014,7 +4036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>787</v>
       </c>
@@ -4061,7 +4083,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>800</v>
       </c>
@@ -4090,7 +4112,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4131,7 +4153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4181,7 +4203,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4231,7 +4253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4281,7 +4303,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4331,7 +4353,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4372,21 +4394,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>926</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="C58" t="s">
         <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>476</v>
       </c>
       <c r="E58">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -4413,13 +4435,13 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="O58" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="Q58" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4457,7 +4479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4507,7 +4529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4551,7 +4573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4592,7 +4614,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4633,7 +4655,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4683,7 +4705,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4736,7 +4758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4792,7 +4814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4839,7 +4861,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4889,7 +4911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4936,7 +4958,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4968,7 +4990,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -5018,7 +5040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -5068,7 +5090,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -5115,7 +5137,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5162,7 +5184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5209,7 +5231,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5253,7 +5275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5303,7 +5325,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5350,7 +5372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5400,7 +5422,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5447,7 +5469,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5500,7 +5522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5550,7 +5572,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5600,7 +5622,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5647,7 +5669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5679,7 +5701,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5717,7 +5739,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5749,7 +5771,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5781,7 +5803,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5810,7 +5832,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5863,7 +5885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5913,7 +5935,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5963,7 +5985,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -6016,7 +6038,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -6063,7 +6085,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -6113,7 +6135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -6160,7 +6182,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384">
+    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -6210,7 +6232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384">
+    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6242,7 +6264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384">
+    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6289,7 +6311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384">
+    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6321,7 +6343,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384">
+    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6368,7 +6390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384">
+    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6418,7 +6440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384">
+    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6465,7 +6487,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384">
+    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6494,7 +6516,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384">
+    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384">
+    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6570,7 +6592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384">
+    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6617,7 +6639,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384">
+    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6661,7 +6683,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384">
+    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6705,7 +6727,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384">
+    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6734,7 +6756,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384">
+    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6766,7 +6788,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:22 16384:16384">
+    <row r="112" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1295</v>
       </c>
@@ -6813,7 +6835,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1296</v>
       </c>
@@ -6860,7 +6882,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1297</v>
       </c>
@@ -6907,7 +6929,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1298</v>
       </c>
@@ -6954,7 +6976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1299</v>
       </c>
@@ -7001,7 +7023,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1300</v>
       </c>
@@ -7048,7 +7070,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1301</v>
       </c>
@@ -7095,7 +7117,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1302</v>
       </c>
@@ -7142,7 +7164,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1303</v>
       </c>
@@ -7186,6 +7208,105 @@
         <v>33</v>
       </c>
       <c r="Q120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1305</v>
+      </c>
+      <c r="B122" t="s">
+        <v>472</v>
+      </c>
+      <c r="C122" t="s">
+        <v>473</v>
+      </c>
+      <c r="D122" t="s">
+        <v>301</v>
+      </c>
+      <c r="E122">
+        <v>2018</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122">
+        <v>40.712777799999998</v>
+      </c>
+      <c r="I122">
+        <v>-74.005832999999996</v>
+      </c>
+      <c r="J122">
+        <v>10</v>
+      </c>
+      <c r="K122" t="s">
+        <v>192</v>
+      </c>
+      <c r="L122" t="s">
+        <v>37</v>
+      </c>
+      <c r="M122">
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="N122">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1306</v>
+      </c>
+      <c r="B123" t="s">
+        <v>404</v>
+      </c>
+      <c r="C123" t="s">
+        <v>254</v>
+      </c>
+      <c r="D123" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>2014</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123">
+        <v>-27.466667000000001</v>
+      </c>
+      <c r="I123">
+        <v>153.033333</v>
+      </c>
+      <c r="J123">
+        <v>8</v>
+      </c>
+      <c r="K123" t="s">
+        <v>409</v>
+      </c>
+      <c r="L123" t="s">
+        <v>105</v>
+      </c>
+      <c r="M123">
+        <v>2.4082330000000001</v>
+      </c>
+      <c r="N123">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O123" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q123" t="s">
         <v>267</v>
       </c>
     </row>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M124" sqref="M124"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2322,7 @@
         <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>43.7</v>
@@ -6899,7 +6899,7 @@
         <v>2012</v>
       </c>
       <c r="F114" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="H114">
         <v>51.507221999999999</v>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PhD - 10th Year\GreenInfrastructureMeta\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="660" windowWidth="28275" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1455,8 +1450,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,7 +1542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1579,10 +1574,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1614,7 +1608,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1790,19 +1783,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="C100" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1914,7 +1907,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -1967,7 +1960,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2058,7 +2051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2114,7 +2107,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>154</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>161</v>
       </c>
@@ -2211,7 +2204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>189</v>
       </c>
@@ -2261,7 +2254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>247</v>
       </c>
@@ -2305,7 +2298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>251</v>
       </c>
@@ -2352,7 +2345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>253</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>310</v>
       </c>
@@ -2449,7 +2442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>315</v>
       </c>
@@ -2481,7 +2474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>319</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>328</v>
       </c>
@@ -2581,7 +2574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>335</v>
       </c>
@@ -2628,7 +2621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>356</v>
       </c>
@@ -2678,7 +2671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2725,7 +2718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>397</v>
       </c>
@@ -2757,7 +2750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>400</v>
       </c>
@@ -2807,7 +2800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>408</v>
       </c>
@@ -2839,7 +2832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>415</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>429</v>
       </c>
@@ -2936,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>431</v>
       </c>
@@ -2968,7 +2961,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>434</v>
       </c>
@@ -3015,7 +3008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>454</v>
       </c>
@@ -3062,7 +3055,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>463</v>
       </c>
@@ -3109,7 +3102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>464</v>
       </c>
@@ -3156,7 +3149,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>465</v>
       </c>
@@ -3182,7 +3175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>466</v>
       </c>
@@ -3235,7 +3228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>491</v>
       </c>
@@ -3279,7 +3272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>499</v>
       </c>
@@ -3326,7 +3319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>511</v>
       </c>
@@ -3358,7 +3351,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>514</v>
       </c>
@@ -3411,7 +3404,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>536</v>
       </c>
@@ -3467,7 +3460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>546</v>
       </c>
@@ -3511,7 +3504,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>563</v>
       </c>
@@ -3558,7 +3551,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>593</v>
       </c>
@@ -3599,7 +3592,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>621</v>
       </c>
@@ -3640,7 +3633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>640</v>
       </c>
@@ -3687,7 +3680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>641</v>
       </c>
@@ -3737,7 +3730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>659</v>
       </c>
@@ -3787,7 +3780,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>670</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>679</v>
       </c>
@@ -3866,7 +3859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>697</v>
       </c>
@@ -3913,7 +3906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>728</v>
       </c>
@@ -3942,7 +3935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>760</v>
       </c>
@@ -3989,7 +3982,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>777</v>
       </c>
@@ -4036,7 +4029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>787</v>
       </c>
@@ -4083,7 +4076,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>800</v>
       </c>
@@ -4112,7 +4105,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>877</v>
       </c>
@@ -4153,7 +4146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>879</v>
       </c>
@@ -4203,7 +4196,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>881</v>
       </c>
@@ -4253,7 +4246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>895</v>
       </c>
@@ -4303,7 +4296,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>899</v>
       </c>
@@ -4353,7 +4346,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>912</v>
       </c>
@@ -4394,7 +4387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>926</v>
       </c>
@@ -4441,7 +4434,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>949</v>
       </c>
@@ -4479,7 +4472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>976</v>
       </c>
@@ -4529,7 +4522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>1023</v>
       </c>
@@ -4573,7 +4566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>1046</v>
       </c>
@@ -4614,7 +4607,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>1047</v>
       </c>
@@ -4655,7 +4648,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>1049</v>
       </c>
@@ -4705,7 +4698,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>1050</v>
       </c>
@@ -4758,7 +4751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>1051</v>
       </c>
@@ -4814,7 +4807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>1052</v>
       </c>
@@ -4861,7 +4854,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>1055</v>
       </c>
@@ -4911,7 +4904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>1056</v>
       </c>
@@ -4958,7 +4951,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>1059</v>
       </c>
@@ -4990,7 +4983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>1062</v>
       </c>
@@ -5040,7 +5033,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>1063</v>
       </c>
@@ -5090,7 +5083,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>1067</v>
       </c>
@@ -5137,7 +5130,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>1069</v>
       </c>
@@ -5184,7 +5177,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>1070</v>
       </c>
@@ -5231,7 +5224,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -5275,7 +5268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>1093</v>
       </c>
@@ -5325,7 +5318,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>1094</v>
       </c>
@@ -5372,7 +5365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>1101</v>
       </c>
@@ -5422,7 +5415,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>1105</v>
       </c>
@@ -5469,7 +5462,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>1107</v>
       </c>
@@ -5522,7 +5515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>1114</v>
       </c>
@@ -5572,7 +5565,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>1120</v>
       </c>
@@ -5622,7 +5615,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>1123</v>
       </c>
@@ -5669,7 +5662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85">
         <v>1126</v>
       </c>
@@ -5701,7 +5694,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86">
         <v>1127</v>
       </c>
@@ -5739,7 +5732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87">
         <v>1134</v>
       </c>
@@ -5771,7 +5764,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88">
         <v>1136</v>
       </c>
@@ -5803,7 +5796,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89">
         <v>1137</v>
       </c>
@@ -5832,7 +5825,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>1156</v>
       </c>
@@ -5885,7 +5878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>1167</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92">
         <v>1198</v>
       </c>
@@ -5985,7 +5978,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>1201</v>
       </c>
@@ -6038,7 +6031,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94">
         <v>1223</v>
       </c>
@@ -6085,7 +6078,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95">
         <v>1255</v>
       </c>
@@ -6135,7 +6128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96">
         <v>1262</v>
       </c>
@@ -6182,7 +6175,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22 16384:16384">
       <c r="A97">
         <v>1265</v>
       </c>
@@ -6232,7 +6225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22 16384:16384">
       <c r="A98">
         <v>1267</v>
       </c>
@@ -6264,7 +6257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22 16384:16384">
       <c r="A99">
         <v>1269</v>
       </c>
@@ -6311,7 +6304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22 16384:16384">
       <c r="A100">
         <v>1273</v>
       </c>
@@ -6343,7 +6336,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22 16384:16384">
       <c r="A101">
         <v>1274</v>
       </c>
@@ -6390,7 +6383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22 16384:16384">
       <c r="A102">
         <v>1285</v>
       </c>
@@ -6440,7 +6433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22 16384:16384">
       <c r="A103">
         <v>1286</v>
       </c>
@@ -6487,7 +6480,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22 16384:16384">
       <c r="A104">
         <v>1287</v>
       </c>
@@ -6516,7 +6509,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22 16384:16384">
       <c r="A105">
         <v>1288</v>
       </c>
@@ -6545,7 +6538,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22 16384:16384">
       <c r="A106">
         <v>1289</v>
       </c>
@@ -6592,7 +6585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22 16384:16384">
       <c r="A107">
         <v>1290</v>
       </c>
@@ -6639,7 +6632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="108" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22 16384:16384">
       <c r="A108">
         <v>1291</v>
       </c>
@@ -6683,7 +6676,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22 16384:16384">
       <c r="A109">
         <v>1292</v>
       </c>
@@ -6727,7 +6720,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22 16384:16384">
       <c r="A110">
         <v>1293</v>
       </c>
@@ -6756,7 +6749,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22 16384:16384">
       <c r="A111">
         <v>1294</v>
       </c>
@@ -6788,7 +6781,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:22 16384:16384" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22 16384:16384">
       <c r="A112">
         <v>1295</v>
       </c>
@@ -6835,7 +6828,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>1296</v>
       </c>
@@ -6882,7 +6875,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>1297</v>
       </c>
@@ -6929,7 +6922,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>1298</v>
       </c>
@@ -6976,7 +6969,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>1299</v>
       </c>
@@ -7023,7 +7016,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>1300</v>
       </c>
@@ -7070,7 +7063,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>1301</v>
       </c>
@@ -7117,7 +7110,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>1302</v>
       </c>
@@ -7164,7 +7157,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>1303</v>
       </c>
@@ -7211,12 +7204,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17">
       <c r="A121">
         <v>1304</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17">
       <c r="A122">
         <v>1305</v>
       </c>
@@ -7263,7 +7256,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17">
       <c r="A123">
         <v>1306</v>
       </c>

--- a/data/MSdata.xlsx
+++ b/data/MSdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="483">
   <si>
     <t>id</t>
   </si>
@@ -1445,6 +1445,24 @@
   </si>
   <si>
     <t>Journal of Cleaner Production</t>
+  </si>
+  <si>
+    <t>Unique Bee Communities within Vacant Lots and Urban Farms Result from Variation in Surrounding Urbanization Intensity</t>
+  </si>
+  <si>
+    <t>Sivakoff et al. 2018</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Plant and microbial biodiversity in urban forests and public gardens: Insights for cities’ sustainable development</t>
+  </si>
+  <si>
+    <t>Lurdes Barrico, Helena Castro, António Pereira Coutinho, Maria Teresa Gonçalves, Helena Freitas, &amp; Paula Castro</t>
+  </si>
+  <si>
+    <t>Coimbra</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD123"/>
+  <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P128" sqref="P128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7303,6 +7321,100 @@
         <v>267</v>
       </c>
     </row>
+    <row r="124" spans="1:17">
+      <c r="A124">
+        <v>1307</v>
+      </c>
+      <c r="B124" t="s">
+        <v>477</v>
+      </c>
+      <c r="C124" t="s">
+        <v>478</v>
+      </c>
+      <c r="D124" t="s">
+        <v>479</v>
+      </c>
+      <c r="E124">
+        <v>2018</v>
+      </c>
+      <c r="F124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124">
+        <v>41.482222</v>
+      </c>
+      <c r="I124">
+        <v>-81.669721999999993</v>
+      </c>
+      <c r="J124">
+        <v>199</v>
+      </c>
+      <c r="K124" t="s">
+        <v>180</v>
+      </c>
+      <c r="L124" t="s">
+        <v>37</v>
+      </c>
+      <c r="M124">
+        <v>0.396698</v>
+      </c>
+      <c r="N124">
+        <v>1.8619999999999999E-3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125">
+        <v>1308</v>
+      </c>
+      <c r="B125" t="s">
+        <v>480</v>
+      </c>
+      <c r="C125" t="s">
+        <v>481</v>
+      </c>
+      <c r="D125" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125">
+        <v>2018</v>
+      </c>
+      <c r="F125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125">
+        <v>40.211111000000002</v>
+      </c>
+      <c r="I125">
+        <v>-8.4291669999999996</v>
+      </c>
+      <c r="J125">
+        <v>9</v>
+      </c>
+      <c r="K125" t="s">
+        <v>482</v>
+      </c>
+      <c r="L125" t="s">
+        <v>70</v>
+      </c>
+      <c r="M125">
+        <v>0.143396</v>
+      </c>
+      <c r="N125">
+        <v>3.19E-4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
